--- a/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>XPEV</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,11 +711,11 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>353100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1500</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -738,11 +738,11 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>409300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1800</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -765,11 +765,11 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-400</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -805,11 +805,11 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>314900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>159900</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -859,11 +859,11 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -886,26 +886,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,11 +923,11 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>928200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>259300</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -950,11 +950,11 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-575100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-257800</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -990,11 +990,11 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45900</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1017,11 +1017,11 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-522200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-197400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1044,11 +1044,11 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>900</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1071,11 +1071,11 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-561600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-212800</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1098,11 +1098,11 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1152,11 +1152,11 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-561600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-212800</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1179,11 +1179,11 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-706300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-343000</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1233,26 +1233,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3"/>
     </row>
@@ -1314,11 +1314,11 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-45900</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1341,11 +1341,11 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-706300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-343000</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1395,11 +1395,11 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-706300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-343000</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>282800</v>
+        <v>296200</v>
       </c>
       <c r="E41" s="3">
-        <v>346600</v>
+        <v>363100</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1508,10 +1508,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>59200</v>
+        <v>62000</v>
       </c>
       <c r="E42" s="3">
-        <v>326200</v>
+        <v>341700</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>192300</v>
+        <v>201400</v>
       </c>
       <c r="E43" s="3">
-        <v>158000</v>
+        <v>165500</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1562,10 +1562,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>66000</v>
+        <v>69100</v>
       </c>
       <c r="E44" s="3">
-        <v>24600</v>
+        <v>25800</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>120200</v>
+        <v>125900</v>
       </c>
       <c r="E45" s="3">
-        <v>31800</v>
+        <v>33300</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>720400</v>
+        <v>754600</v>
       </c>
       <c r="E46" s="3">
-        <v>887200</v>
+        <v>929300</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1643,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16000</v>
+        <v>16700</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>533000</v>
+        <v>558300</v>
       </c>
       <c r="E48" s="3">
-        <v>175100</v>
+        <v>183400</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>54200</v>
+        <v>56800</v>
       </c>
       <c r="E49" s="3">
-        <v>44900</v>
+        <v>47100</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1778,10 +1778,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20000</v>
+        <v>20900</v>
       </c>
       <c r="E52" s="3">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1343600</v>
+        <v>1407300</v>
       </c>
       <c r="E54" s="3">
-        <v>1114400</v>
+        <v>1167200</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>138500</v>
+        <v>145100</v>
       </c>
       <c r="E57" s="3">
-        <v>31200</v>
+        <v>32700</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>69700</v>
+        <v>73000</v>
       </c>
       <c r="E58" s="3">
-        <v>29000</v>
+        <v>30400</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>270700</v>
+        <v>283500</v>
       </c>
       <c r="E59" s="3">
-        <v>81100</v>
+        <v>84900</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>478900</v>
+        <v>501600</v>
       </c>
       <c r="E60" s="3">
-        <v>141300</v>
+        <v>148000</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>245400</v>
+        <v>257100</v>
       </c>
       <c r="E61" s="3">
-        <v>145200</v>
+        <v>152100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>203400</v>
+        <v>213100</v>
       </c>
       <c r="E62" s="3">
-        <v>131600</v>
+        <v>137800</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>927800</v>
+        <v>971800</v>
       </c>
       <c r="E66" s="3">
-        <v>418100</v>
+        <v>437900</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2222,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1407800</v>
+        <v>1474600</v>
       </c>
       <c r="E70" s="3">
-        <v>1013600</v>
+        <v>1061700</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-991100</v>
+        <v>-1038100</v>
       </c>
       <c r="E72" s="3">
-        <v>-316900</v>
+        <v>-332000</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-992000</v>
+        <v>-1039100</v>
       </c>
       <c r="E76" s="3">
-        <v>-317300</v>
+        <v>-332400</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2469,11 +2469,11 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-706300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-343000</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,10 +2510,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>32900</v>
+        <v>34500</v>
       </c>
       <c r="E83" s="3">
-        <v>13900</v>
+        <v>14500</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-517400</v>
+        <v>-542000</v>
       </c>
       <c r="E89" s="3">
-        <v>-228400</v>
+        <v>-239200</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-266000</v>
+        <v>-278600</v>
       </c>
       <c r="E91" s="3">
-        <v>-111900</v>
+        <v>-117200</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>107500</v>
+        <v>112600</v>
       </c>
       <c r="E94" s="3">
-        <v>-527200</v>
+        <v>-552200</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>521900</v>
+        <v>546700</v>
       </c>
       <c r="E100" s="3">
-        <v>978000</v>
+        <v>1024400</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2968,10 +2968,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E101" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>112700</v>
+        <v>118100</v>
       </c>
       <c r="E102" s="3">
-        <v>220200</v>
+        <v>230700</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>353100</v>
+        <v>354600</v>
       </c>
       <c r="E8" s="3">
         <v>1500</v>
@@ -739,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>409300</v>
+        <v>411100</v>
       </c>
       <c r="E9" s="3">
         <v>1800</v>
@@ -766,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-56200</v>
+        <v>-56400</v>
       </c>
       <c r="E10" s="3">
         <v>-400</v>
@@ -806,10 +806,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>314900</v>
+        <v>316300</v>
       </c>
       <c r="E12" s="3">
-        <v>159900</v>
+        <v>160600</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>28700</v>
+        <v>28800</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>928200</v>
+        <v>932200</v>
       </c>
       <c r="E17" s="3">
-        <v>259300</v>
+        <v>260400</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-575100</v>
+        <v>-577600</v>
       </c>
       <c r="E18" s="3">
-        <v>-257800</v>
+        <v>-258900</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -991,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18400</v>
+        <v>18500</v>
       </c>
       <c r="E20" s="3">
-        <v>45900</v>
+        <v>46100</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-522200</v>
+        <v>-524400</v>
       </c>
       <c r="E21" s="3">
-        <v>-197400</v>
+        <v>-198200</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-561600</v>
+        <v>-564000</v>
       </c>
       <c r="E23" s="3">
-        <v>-212800</v>
+        <v>-213700</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-561600</v>
+        <v>-564000</v>
       </c>
       <c r="E26" s="3">
-        <v>-212800</v>
+        <v>-213700</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-706300</v>
+        <v>-709300</v>
       </c>
       <c r="E27" s="3">
-        <v>-343000</v>
+        <v>-344500</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18400</v>
+        <v>-18500</v>
       </c>
       <c r="E32" s="3">
-        <v>-45900</v>
+        <v>-46100</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-706300</v>
+        <v>-709300</v>
       </c>
       <c r="E33" s="3">
-        <v>-343000</v>
+        <v>-344500</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-706300</v>
+        <v>-709300</v>
       </c>
       <c r="E35" s="3">
-        <v>-343000</v>
+        <v>-344500</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>296200</v>
+        <v>297500</v>
       </c>
       <c r="E41" s="3">
-        <v>363100</v>
+        <v>364700</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1508,10 +1508,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>62000</v>
+        <v>62300</v>
       </c>
       <c r="E42" s="3">
-        <v>341700</v>
+        <v>343200</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>201400</v>
+        <v>202300</v>
       </c>
       <c r="E43" s="3">
-        <v>165500</v>
+        <v>166200</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1562,10 +1562,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>69100</v>
+        <v>69400</v>
       </c>
       <c r="E44" s="3">
-        <v>25800</v>
+        <v>25900</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>125900</v>
+        <v>126500</v>
       </c>
       <c r="E45" s="3">
-        <v>33300</v>
+        <v>33400</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>754600</v>
+        <v>757900</v>
       </c>
       <c r="E46" s="3">
-        <v>929300</v>
+        <v>933300</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1643,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16700</v>
+        <v>16800</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>558300</v>
+        <v>560700</v>
       </c>
       <c r="E48" s="3">
-        <v>183400</v>
+        <v>184200</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>56800</v>
+        <v>57000</v>
       </c>
       <c r="E49" s="3">
-        <v>47100</v>
+        <v>47300</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1778,7 +1778,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20900</v>
+        <v>21000</v>
       </c>
       <c r="E52" s="3">
         <v>7500</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1407300</v>
+        <v>1413400</v>
       </c>
       <c r="E54" s="3">
-        <v>1167200</v>
+        <v>1172300</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>145100</v>
+        <v>145700</v>
       </c>
       <c r="E57" s="3">
-        <v>32700</v>
+        <v>32800</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>73000</v>
+        <v>73300</v>
       </c>
       <c r="E58" s="3">
-        <v>30400</v>
+        <v>30600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>283500</v>
+        <v>284800</v>
       </c>
       <c r="E59" s="3">
-        <v>84900</v>
+        <v>85300</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>501600</v>
+        <v>503800</v>
       </c>
       <c r="E60" s="3">
-        <v>148000</v>
+        <v>148700</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>257100</v>
+        <v>258200</v>
       </c>
       <c r="E61" s="3">
-        <v>152100</v>
+        <v>152800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>213100</v>
+        <v>214000</v>
       </c>
       <c r="E62" s="3">
-        <v>137800</v>
+        <v>138400</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>971800</v>
+        <v>976000</v>
       </c>
       <c r="E66" s="3">
-        <v>437900</v>
+        <v>439800</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2222,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1474600</v>
+        <v>1481000</v>
       </c>
       <c r="E70" s="3">
-        <v>1061700</v>
+        <v>1066300</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1038100</v>
+        <v>-1042600</v>
       </c>
       <c r="E72" s="3">
-        <v>-332000</v>
+        <v>-333400</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1039100</v>
+        <v>-1043600</v>
       </c>
       <c r="E76" s="3">
-        <v>-332400</v>
+        <v>-333800</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-706300</v>
+        <v>-709300</v>
       </c>
       <c r="E81" s="3">
-        <v>-343000</v>
+        <v>-344500</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,10 +2510,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>34500</v>
+        <v>34600</v>
       </c>
       <c r="E83" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-542000</v>
+        <v>-544300</v>
       </c>
       <c r="E89" s="3">
-        <v>-239200</v>
+        <v>-240300</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-278600</v>
+        <v>-279800</v>
       </c>
       <c r="E91" s="3">
-        <v>-117200</v>
+        <v>-117700</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>112600</v>
+        <v>113100</v>
       </c>
       <c r="E94" s="3">
-        <v>-552200</v>
+        <v>-554600</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>546700</v>
+        <v>549000</v>
       </c>
       <c r="E100" s="3">
-        <v>1024400</v>
+        <v>1028900</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2971,7 +2971,7 @@
         <v>800</v>
       </c>
       <c r="E101" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>118100</v>
+        <v>118600</v>
       </c>
       <c r="E102" s="3">
-        <v>230700</v>
+        <v>231700</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,34 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,21 +705,24 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>354600</v>
+        <v>911800</v>
       </c>
       <c r="E8" s="3">
+        <v>362100</v>
+      </c>
+      <c r="F8" s="3">
         <v>1500</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -732,20 +735,23 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>411100</v>
+        <v>846000</v>
       </c>
       <c r="E9" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>419800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1900</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -759,21 +765,24 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-56400</v>
+        <v>65800</v>
       </c>
       <c r="E10" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="F10" s="3">
         <v>-400</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,19 +812,20 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>316300</v>
+        <v>269300</v>
       </c>
       <c r="E12" s="3">
-        <v>160600</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+        <v>323000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>164000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,20 +869,23 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>28800</v>
+        <v>24300</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>29400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -880,9 +899,12 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,19 +943,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>932200</v>
+        <v>1581600</v>
       </c>
       <c r="E17" s="3">
-        <v>260400</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>951900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>265900</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -944,20 +970,23 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-577600</v>
+        <v>-669900</v>
       </c>
       <c r="E18" s="3">
-        <v>-258900</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-589800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-264400</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,19 +1017,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18500</v>
+        <v>247300</v>
       </c>
       <c r="E20" s="3">
-        <v>46100</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>18900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>47100</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1011,20 +1044,23 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-524400</v>
+        <v>-371300</v>
       </c>
       <c r="E21" s="3">
-        <v>-198200</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>-535600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-207800</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1038,21 +1074,24 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4900</v>
+        <v>3500</v>
       </c>
       <c r="E22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,20 +1104,23 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-564000</v>
+        <v>-426000</v>
       </c>
       <c r="E23" s="3">
-        <v>-213700</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>-575900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-218200</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1092,20 +1134,23 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,20 +1194,23 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-564000</v>
+        <v>-426200</v>
       </c>
       <c r="E26" s="3">
-        <v>-213700</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>-575900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-218200</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1173,20 +1224,23 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-709300</v>
+        <v>-762800</v>
       </c>
       <c r="E27" s="3">
-        <v>-344500</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-724300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-351800</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,20 +1374,23 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18500</v>
+        <v>-247300</v>
       </c>
       <c r="E32" s="3">
-        <v>-46100</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>-18900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-47100</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1335,20 +1404,23 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-709300</v>
+        <v>-762800</v>
       </c>
       <c r="E33" s="3">
-        <v>-344500</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-724300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-351800</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,20 +1464,23 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-709300</v>
+        <v>-762800</v>
       </c>
       <c r="E35" s="3">
-        <v>-344500</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-724300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-351800</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1416,26 +1494,29 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,19 +1560,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>297500</v>
+        <v>4709800</v>
       </c>
       <c r="E41" s="3">
-        <v>364700</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>303700</v>
+      </c>
+      <c r="F41" s="3">
+        <v>372400</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1501,20 +1587,23 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>62300</v>
+        <v>440100</v>
       </c>
       <c r="E42" s="3">
-        <v>343200</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>63600</v>
+      </c>
+      <c r="F42" s="3">
+        <v>350400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1528,20 +1617,23 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>202300</v>
+        <v>282000</v>
       </c>
       <c r="E43" s="3">
-        <v>166200</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>206500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>169700</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1555,20 +1647,23 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>69400</v>
+        <v>209500</v>
       </c>
       <c r="E44" s="3">
-        <v>25900</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>70800</v>
+      </c>
+      <c r="F44" s="3">
+        <v>26400</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1582,20 +1677,23 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>126500</v>
+        <v>549000</v>
       </c>
       <c r="E45" s="3">
-        <v>33400</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>129200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>34200</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1609,20 +1707,23 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>757900</v>
+        <v>6190400</v>
       </c>
       <c r="E46" s="3">
-        <v>933300</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>773900</v>
+      </c>
+      <c r="F46" s="3">
+        <v>953100</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1636,20 +1737,23 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16800</v>
+        <v>62200</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>17200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1663,20 +1767,23 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>560700</v>
+        <v>552700</v>
       </c>
       <c r="E48" s="3">
-        <v>184200</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>572600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>188100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1690,20 +1797,23 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>57000</v>
+        <v>133800</v>
       </c>
       <c r="E49" s="3">
-        <v>47300</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>58200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>48300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,20 +1887,23 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21000</v>
+        <v>35700</v>
       </c>
       <c r="E52" s="3">
-        <v>7500</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>21500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>7700</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,20 +1947,23 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1413400</v>
+        <v>6974700</v>
       </c>
       <c r="E54" s="3">
-        <v>1172300</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>1443300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1197100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,19 +2008,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>145700</v>
+        <v>797500</v>
       </c>
       <c r="E57" s="3">
-        <v>32800</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>148800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>33500</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1905,20 +2035,23 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>73300</v>
+        <v>27000</v>
       </c>
       <c r="E58" s="3">
-        <v>30600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>74900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>31200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1932,20 +2065,23 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>284800</v>
+        <v>398200</v>
       </c>
       <c r="E59" s="3">
-        <v>85300</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>290800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>87100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1959,20 +2095,23 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>503800</v>
+        <v>1222700</v>
       </c>
       <c r="E60" s="3">
-        <v>148700</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>514500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>151800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1986,20 +2125,23 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>258200</v>
+        <v>256600</v>
       </c>
       <c r="E61" s="3">
-        <v>152800</v>
+        <v>263700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>156000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2013,20 +2155,23 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>214000</v>
+        <v>124000</v>
       </c>
       <c r="E62" s="3">
-        <v>138400</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>218500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>141300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,20 +2275,23 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>976000</v>
+        <v>1603300</v>
       </c>
       <c r="E66" s="3">
-        <v>439800</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>996600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>449100</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,20 +2379,23 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1481000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1066300</v>
+        <v>1512300</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>1088900</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,20 +2439,23 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1042600</v>
+        <v>-1766400</v>
       </c>
       <c r="E72" s="3">
-        <v>-333400</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-1064700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-340500</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,20 +2559,23 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1043600</v>
+        <v>5371400</v>
       </c>
       <c r="E76" s="3">
-        <v>-333800</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>-1065600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-340900</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,26 +2619,29 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,20 +2654,23 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-709300</v>
+        <v>-762800</v>
       </c>
       <c r="E81" s="3">
-        <v>-344500</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-724300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-351800</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,19 +2701,20 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>34600</v>
+        <v>51200</v>
       </c>
       <c r="E83" s="3">
-        <v>14600</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+        <v>35400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>9500</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,20 +2878,23 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-544300</v>
+        <v>-21800</v>
       </c>
       <c r="E89" s="3">
-        <v>-240300</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-555800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-245400</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,19 +2925,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-279800</v>
+        <v>-125800</v>
       </c>
       <c r="E91" s="3">
-        <v>-117700</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+        <v>-285700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-120200</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,20 +3012,23 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>113100</v>
+        <v>-687400</v>
       </c>
       <c r="E94" s="3">
-        <v>-554600</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>115500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-566400</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,20 +3176,23 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>549000</v>
+        <v>5355800</v>
       </c>
       <c r="E100" s="3">
-        <v>1028900</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>560600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1050600</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2961,21 +3206,24 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-101400</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2300</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2988,20 +3236,23 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>118600</v>
+        <v>4545200</v>
       </c>
       <c r="E102" s="3">
-        <v>231700</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>121100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>236600</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
@@ -715,10 +715,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>911800</v>
+        <v>899900</v>
       </c>
       <c r="E8" s="3">
-        <v>362100</v>
+        <v>357400</v>
       </c>
       <c r="F8" s="3">
         <v>1500</v>
@@ -745,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>846000</v>
+        <v>835000</v>
       </c>
       <c r="E9" s="3">
-        <v>419800</v>
+        <v>414300</v>
       </c>
       <c r="F9" s="3">
         <v>1900</v>
@@ -775,10 +775,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>65800</v>
+        <v>65000</v>
       </c>
       <c r="E10" s="3">
-        <v>-57600</v>
+        <v>-56900</v>
       </c>
       <c r="F10" s="3">
         <v>-400</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>269300</v>
+        <v>265800</v>
       </c>
       <c r="E12" s="3">
-        <v>323000</v>
+        <v>318800</v>
       </c>
       <c r="F12" s="3">
-        <v>164000</v>
+        <v>161900</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24300</v>
+        <v>24000</v>
       </c>
       <c r="E14" s="3">
-        <v>29400</v>
+        <v>29100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1581600</v>
+        <v>1561100</v>
       </c>
       <c r="E17" s="3">
-        <v>951900</v>
+        <v>939600</v>
       </c>
       <c r="F17" s="3">
-        <v>265900</v>
+        <v>262400</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-669900</v>
+        <v>-661100</v>
       </c>
       <c r="E18" s="3">
-        <v>-589800</v>
+        <v>-582100</v>
       </c>
       <c r="F18" s="3">
-        <v>-264400</v>
+        <v>-260900</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>247300</v>
+        <v>244100</v>
       </c>
       <c r="E20" s="3">
-        <v>18900</v>
+        <v>18600</v>
       </c>
       <c r="F20" s="3">
-        <v>47100</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-371300</v>
+        <v>-366400</v>
       </c>
       <c r="E21" s="3">
-        <v>-535600</v>
+        <v>-542200</v>
       </c>
       <c r="F21" s="3">
-        <v>-207800</v>
+        <v>-205100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1087,7 +1087,7 @@
         <v>3500</v>
       </c>
       <c r="E22" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F22" s="3">
         <v>900</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-426000</v>
+        <v>-420500</v>
       </c>
       <c r="E23" s="3">
-        <v>-575900</v>
+        <v>-568400</v>
       </c>
       <c r="F23" s="3">
-        <v>-218200</v>
+        <v>-215400</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-426200</v>
+        <v>-420700</v>
       </c>
       <c r="E26" s="3">
-        <v>-575900</v>
+        <v>-568400</v>
       </c>
       <c r="F26" s="3">
-        <v>-218200</v>
+        <v>-215400</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-762800</v>
+        <v>-752900</v>
       </c>
       <c r="E27" s="3">
-        <v>-724300</v>
+        <v>-714900</v>
       </c>
       <c r="F27" s="3">
-        <v>-351800</v>
+        <v>-347200</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-247300</v>
+        <v>-244100</v>
       </c>
       <c r="E32" s="3">
-        <v>-18900</v>
+        <v>-18600</v>
       </c>
       <c r="F32" s="3">
-        <v>-47100</v>
+        <v>-46400</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-762800</v>
+        <v>-752900</v>
       </c>
       <c r="E33" s="3">
-        <v>-724300</v>
+        <v>-714900</v>
       </c>
       <c r="F33" s="3">
-        <v>-351800</v>
+        <v>-347200</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-762800</v>
+        <v>-752900</v>
       </c>
       <c r="E35" s="3">
-        <v>-724300</v>
+        <v>-714900</v>
       </c>
       <c r="F35" s="3">
-        <v>-351800</v>
+        <v>-347200</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4709800</v>
+        <v>4648500</v>
       </c>
       <c r="E41" s="3">
-        <v>303700</v>
+        <v>299800</v>
       </c>
       <c r="F41" s="3">
-        <v>372400</v>
+        <v>367500</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>440100</v>
+        <v>434300</v>
       </c>
       <c r="E42" s="3">
-        <v>63600</v>
+        <v>62800</v>
       </c>
       <c r="F42" s="3">
-        <v>350400</v>
+        <v>345900</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>282000</v>
+        <v>278300</v>
       </c>
       <c r="E43" s="3">
-        <v>206500</v>
+        <v>203800</v>
       </c>
       <c r="F43" s="3">
-        <v>169700</v>
+        <v>167500</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>209500</v>
+        <v>206800</v>
       </c>
       <c r="E44" s="3">
-        <v>70800</v>
+        <v>69900</v>
       </c>
       <c r="F44" s="3">
-        <v>26400</v>
+        <v>26100</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>549000</v>
+        <v>541900</v>
       </c>
       <c r="E45" s="3">
-        <v>129200</v>
+        <v>127500</v>
       </c>
       <c r="F45" s="3">
-        <v>34200</v>
+        <v>33700</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6190400</v>
+        <v>6109800</v>
       </c>
       <c r="E46" s="3">
-        <v>773900</v>
+        <v>763800</v>
       </c>
       <c r="F46" s="3">
-        <v>953100</v>
+        <v>940700</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1747,10 +1747,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>62200</v>
+        <v>61400</v>
       </c>
       <c r="E47" s="3">
-        <v>17200</v>
+        <v>16900</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>552700</v>
+        <v>545500</v>
       </c>
       <c r="E48" s="3">
-        <v>572600</v>
+        <v>565100</v>
       </c>
       <c r="F48" s="3">
-        <v>188100</v>
+        <v>185600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>133800</v>
+        <v>132100</v>
       </c>
       <c r="E49" s="3">
-        <v>58200</v>
+        <v>57500</v>
       </c>
       <c r="F49" s="3">
-        <v>48300</v>
+        <v>47600</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>35700</v>
+        <v>35200</v>
       </c>
       <c r="E52" s="3">
-        <v>21500</v>
+        <v>21200</v>
       </c>
       <c r="F52" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6974700</v>
+        <v>6883900</v>
       </c>
       <c r="E54" s="3">
-        <v>1443300</v>
+        <v>1424500</v>
       </c>
       <c r="F54" s="3">
-        <v>1197100</v>
+        <v>1181500</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>797500</v>
+        <v>787100</v>
       </c>
       <c r="E57" s="3">
-        <v>148800</v>
+        <v>146900</v>
       </c>
       <c r="F57" s="3">
-        <v>33500</v>
+        <v>33100</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27000</v>
+        <v>26600</v>
       </c>
       <c r="E58" s="3">
-        <v>74900</v>
+        <v>73900</v>
       </c>
       <c r="F58" s="3">
-        <v>31200</v>
+        <v>30800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>398200</v>
+        <v>393100</v>
       </c>
       <c r="E59" s="3">
-        <v>290800</v>
+        <v>287000</v>
       </c>
       <c r="F59" s="3">
-        <v>87100</v>
+        <v>85900</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1222700</v>
+        <v>1206800</v>
       </c>
       <c r="E60" s="3">
-        <v>514500</v>
+        <v>507800</v>
       </c>
       <c r="F60" s="3">
-        <v>151800</v>
+        <v>149800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>256600</v>
+        <v>253300</v>
       </c>
       <c r="E61" s="3">
-        <v>263700</v>
+        <v>260200</v>
       </c>
       <c r="F61" s="3">
-        <v>156000</v>
+        <v>154000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>124000</v>
+        <v>122400</v>
       </c>
       <c r="E62" s="3">
-        <v>218500</v>
+        <v>215700</v>
       </c>
       <c r="F62" s="3">
-        <v>141300</v>
+        <v>139500</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1603300</v>
+        <v>1582400</v>
       </c>
       <c r="E66" s="3">
-        <v>996600</v>
+        <v>983700</v>
       </c>
       <c r="F66" s="3">
-        <v>449100</v>
+        <v>443300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1512300</v>
+        <v>1492600</v>
       </c>
       <c r="F70" s="3">
-        <v>1088900</v>
+        <v>1074700</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1766400</v>
+        <v>-1743400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1064700</v>
+        <v>-1050800</v>
       </c>
       <c r="F72" s="3">
-        <v>-340500</v>
+        <v>-336000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5371400</v>
+        <v>5301500</v>
       </c>
       <c r="E76" s="3">
-        <v>-1065600</v>
+        <v>-1051700</v>
       </c>
       <c r="F76" s="3">
-        <v>-340900</v>
+        <v>-336500</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-762800</v>
+        <v>-752900</v>
       </c>
       <c r="E81" s="3">
-        <v>-724300</v>
+        <v>-714900</v>
       </c>
       <c r="F81" s="3">
-        <v>-351800</v>
+        <v>-347200</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>51200</v>
+        <v>50600</v>
       </c>
       <c r="E83" s="3">
-        <v>35400</v>
+        <v>21300</v>
       </c>
       <c r="F83" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-21800</v>
+        <v>-21500</v>
       </c>
       <c r="E89" s="3">
-        <v>-555800</v>
+        <v>-548600</v>
       </c>
       <c r="F89" s="3">
-        <v>-245400</v>
+        <v>-242200</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-125800</v>
+        <v>-124100</v>
       </c>
       <c r="E91" s="3">
-        <v>-285700</v>
+        <v>-282000</v>
       </c>
       <c r="F91" s="3">
-        <v>-120200</v>
+        <v>-118600</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-687400</v>
+        <v>-678500</v>
       </c>
       <c r="E94" s="3">
-        <v>115500</v>
+        <v>114000</v>
       </c>
       <c r="F94" s="3">
-        <v>-566400</v>
+        <v>-559000</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5355800</v>
+        <v>5286100</v>
       </c>
       <c r="E100" s="3">
-        <v>560600</v>
+        <v>553300</v>
       </c>
       <c r="F100" s="3">
-        <v>1050600</v>
+        <v>1036900</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-101400</v>
+        <v>-100100</v>
       </c>
       <c r="E101" s="3">
         <v>800</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4545200</v>
+        <v>4486000</v>
       </c>
       <c r="E102" s="3">
-        <v>121100</v>
+        <v>119500</v>
       </c>
       <c r="F102" s="3">
-        <v>236600</v>
+        <v>233500</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
@@ -715,10 +715,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>899900</v>
+        <v>915000</v>
       </c>
       <c r="E8" s="3">
-        <v>357400</v>
+        <v>363400</v>
       </c>
       <c r="F8" s="3">
         <v>1500</v>
@@ -745,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>835000</v>
+        <v>848900</v>
       </c>
       <c r="E9" s="3">
-        <v>414300</v>
+        <v>421300</v>
       </c>
       <c r="F9" s="3">
         <v>1900</v>
@@ -775,10 +775,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>65000</v>
+        <v>66000</v>
       </c>
       <c r="E10" s="3">
-        <v>-56900</v>
+        <v>-57800</v>
       </c>
       <c r="F10" s="3">
         <v>-400</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>265800</v>
+        <v>270200</v>
       </c>
       <c r="E12" s="3">
-        <v>318800</v>
+        <v>324100</v>
       </c>
       <c r="F12" s="3">
-        <v>161900</v>
+        <v>164600</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="E14" s="3">
-        <v>29100</v>
+        <v>29500</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1561100</v>
+        <v>1587200</v>
       </c>
       <c r="E17" s="3">
-        <v>939600</v>
+        <v>955300</v>
       </c>
       <c r="F17" s="3">
-        <v>262400</v>
+        <v>266800</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-661100</v>
+        <v>-672200</v>
       </c>
       <c r="E18" s="3">
-        <v>-582100</v>
+        <v>-591900</v>
       </c>
       <c r="F18" s="3">
-        <v>-260900</v>
+        <v>-265300</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>244100</v>
+        <v>248200</v>
       </c>
       <c r="E20" s="3">
-        <v>18600</v>
+        <v>18900</v>
       </c>
       <c r="F20" s="3">
-        <v>46400</v>
+        <v>47200</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-366400</v>
+        <v>-372600</v>
       </c>
       <c r="E21" s="3">
-        <v>-542200</v>
+        <v>-551300</v>
       </c>
       <c r="F21" s="3">
-        <v>-205100</v>
+        <v>-208500</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1087,7 +1087,7 @@
         <v>3500</v>
       </c>
       <c r="E22" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F22" s="3">
         <v>900</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-420500</v>
+        <v>-427500</v>
       </c>
       <c r="E23" s="3">
-        <v>-568400</v>
+        <v>-578000</v>
       </c>
       <c r="F23" s="3">
-        <v>-215400</v>
+        <v>-219000</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-420700</v>
+        <v>-427700</v>
       </c>
       <c r="E26" s="3">
-        <v>-568400</v>
+        <v>-578000</v>
       </c>
       <c r="F26" s="3">
-        <v>-215400</v>
+        <v>-219000</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-752900</v>
+        <v>-765500</v>
       </c>
       <c r="E27" s="3">
-        <v>-714900</v>
+        <v>-726900</v>
       </c>
       <c r="F27" s="3">
-        <v>-347200</v>
+        <v>-353000</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-244100</v>
+        <v>-248200</v>
       </c>
       <c r="E32" s="3">
-        <v>-18600</v>
+        <v>-18900</v>
       </c>
       <c r="F32" s="3">
-        <v>-46400</v>
+        <v>-47200</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-752900</v>
+        <v>-765500</v>
       </c>
       <c r="E33" s="3">
-        <v>-714900</v>
+        <v>-726900</v>
       </c>
       <c r="F33" s="3">
-        <v>-347200</v>
+        <v>-353000</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-752900</v>
+        <v>-765500</v>
       </c>
       <c r="E35" s="3">
-        <v>-714900</v>
+        <v>-726900</v>
       </c>
       <c r="F35" s="3">
-        <v>-347200</v>
+        <v>-353000</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4648500</v>
+        <v>4726400</v>
       </c>
       <c r="E41" s="3">
-        <v>299800</v>
+        <v>304800</v>
       </c>
       <c r="F41" s="3">
-        <v>367500</v>
+        <v>373700</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>434300</v>
+        <v>441600</v>
       </c>
       <c r="E42" s="3">
-        <v>62800</v>
+        <v>63900</v>
       </c>
       <c r="F42" s="3">
-        <v>345900</v>
+        <v>351700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>278300</v>
+        <v>282900</v>
       </c>
       <c r="E43" s="3">
-        <v>203800</v>
+        <v>207300</v>
       </c>
       <c r="F43" s="3">
-        <v>167500</v>
+        <v>170300</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>206800</v>
+        <v>210300</v>
       </c>
       <c r="E44" s="3">
-        <v>69900</v>
+        <v>71100</v>
       </c>
       <c r="F44" s="3">
-        <v>26100</v>
+        <v>26500</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>541900</v>
+        <v>550900</v>
       </c>
       <c r="E45" s="3">
-        <v>127500</v>
+        <v>129600</v>
       </c>
       <c r="F45" s="3">
-        <v>33700</v>
+        <v>34300</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6109800</v>
+        <v>6212200</v>
       </c>
       <c r="E46" s="3">
-        <v>763800</v>
+        <v>776600</v>
       </c>
       <c r="F46" s="3">
-        <v>940700</v>
+        <v>956400</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1747,10 +1747,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>61400</v>
+        <v>62400</v>
       </c>
       <c r="E47" s="3">
-        <v>16900</v>
+        <v>17200</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>545500</v>
+        <v>554600</v>
       </c>
       <c r="E48" s="3">
-        <v>565100</v>
+        <v>574600</v>
       </c>
       <c r="F48" s="3">
-        <v>185600</v>
+        <v>188700</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>132100</v>
+        <v>134300</v>
       </c>
       <c r="E49" s="3">
-        <v>57500</v>
+        <v>58400</v>
       </c>
       <c r="F49" s="3">
-        <v>47600</v>
+        <v>48400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>35200</v>
+        <v>35800</v>
       </c>
       <c r="E52" s="3">
-        <v>21200</v>
+        <v>21500</v>
       </c>
       <c r="F52" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6883900</v>
+        <v>6999300</v>
       </c>
       <c r="E54" s="3">
-        <v>1424500</v>
+        <v>1448400</v>
       </c>
       <c r="F54" s="3">
-        <v>1181500</v>
+        <v>1201300</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>787100</v>
+        <v>800300</v>
       </c>
       <c r="E57" s="3">
-        <v>146900</v>
+        <v>149300</v>
       </c>
       <c r="F57" s="3">
-        <v>33100</v>
+        <v>33600</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26600</v>
+        <v>27100</v>
       </c>
       <c r="E58" s="3">
-        <v>73900</v>
+        <v>75100</v>
       </c>
       <c r="F58" s="3">
-        <v>30800</v>
+        <v>31300</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>393100</v>
+        <v>399600</v>
       </c>
       <c r="E59" s="3">
-        <v>287000</v>
+        <v>291800</v>
       </c>
       <c r="F59" s="3">
-        <v>85900</v>
+        <v>87400</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1206800</v>
+        <v>1227000</v>
       </c>
       <c r="E60" s="3">
-        <v>507800</v>
+        <v>516300</v>
       </c>
       <c r="F60" s="3">
-        <v>149800</v>
+        <v>152300</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>253300</v>
+        <v>257500</v>
       </c>
       <c r="E61" s="3">
-        <v>260200</v>
+        <v>264600</v>
       </c>
       <c r="F61" s="3">
-        <v>154000</v>
+        <v>156600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>122400</v>
+        <v>124400</v>
       </c>
       <c r="E62" s="3">
-        <v>215700</v>
+        <v>219300</v>
       </c>
       <c r="F62" s="3">
-        <v>139500</v>
+        <v>141800</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1582400</v>
+        <v>1609000</v>
       </c>
       <c r="E66" s="3">
-        <v>983700</v>
+        <v>1000200</v>
       </c>
       <c r="F66" s="3">
-        <v>443300</v>
+        <v>450700</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1492600</v>
+        <v>1517600</v>
       </c>
       <c r="F70" s="3">
-        <v>1074700</v>
+        <v>1092700</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1743400</v>
+        <v>-1772600</v>
       </c>
       <c r="E72" s="3">
-        <v>-1050800</v>
+        <v>-1068400</v>
       </c>
       <c r="F72" s="3">
-        <v>-336000</v>
+        <v>-341700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5301500</v>
+        <v>5390300</v>
       </c>
       <c r="E76" s="3">
-        <v>-1051700</v>
+        <v>-1069400</v>
       </c>
       <c r="F76" s="3">
-        <v>-336500</v>
+        <v>-342100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-752900</v>
+        <v>-765500</v>
       </c>
       <c r="E81" s="3">
-        <v>-714900</v>
+        <v>-726900</v>
       </c>
       <c r="F81" s="3">
-        <v>-347200</v>
+        <v>-353000</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>50600</v>
+        <v>51400</v>
       </c>
       <c r="E83" s="3">
-        <v>21300</v>
+        <v>21700</v>
       </c>
       <c r="F83" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-21500</v>
+        <v>-21900</v>
       </c>
       <c r="E89" s="3">
-        <v>-548600</v>
+        <v>-557800</v>
       </c>
       <c r="F89" s="3">
-        <v>-242200</v>
+        <v>-246200</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-124100</v>
+        <v>-126200</v>
       </c>
       <c r="E91" s="3">
-        <v>-282000</v>
+        <v>-286800</v>
       </c>
       <c r="F91" s="3">
-        <v>-118600</v>
+        <v>-120600</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-678500</v>
+        <v>-689800</v>
       </c>
       <c r="E94" s="3">
-        <v>114000</v>
+        <v>115900</v>
       </c>
       <c r="F94" s="3">
-        <v>-559000</v>
+        <v>-568400</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5286100</v>
+        <v>5374700</v>
       </c>
       <c r="E100" s="3">
-        <v>553300</v>
+        <v>562600</v>
       </c>
       <c r="F100" s="3">
-        <v>1036900</v>
+        <v>1054300</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100100</v>
+        <v>-101800</v>
       </c>
       <c r="E101" s="3">
         <v>800</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4486000</v>
+        <v>4561200</v>
       </c>
       <c r="E102" s="3">
-        <v>119500</v>
+        <v>121500</v>
       </c>
       <c r="F102" s="3">
-        <v>233500</v>
+        <v>237400</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
@@ -715,10 +715,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>915000</v>
+        <v>922000</v>
       </c>
       <c r="E8" s="3">
-        <v>363400</v>
+        <v>366200</v>
       </c>
       <c r="F8" s="3">
         <v>1500</v>
@@ -745,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>848900</v>
+        <v>855400</v>
       </c>
       <c r="E9" s="3">
-        <v>421300</v>
+        <v>424500</v>
       </c>
       <c r="F9" s="3">
         <v>1900</v>
@@ -775,10 +775,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>66000</v>
+        <v>66600</v>
       </c>
       <c r="E10" s="3">
-        <v>-57800</v>
+        <v>-58300</v>
       </c>
       <c r="F10" s="3">
         <v>-400</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>270200</v>
+        <v>272300</v>
       </c>
       <c r="E12" s="3">
-        <v>324100</v>
+        <v>326600</v>
       </c>
       <c r="F12" s="3">
-        <v>164600</v>
+        <v>165800</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24400</v>
+        <v>24600</v>
       </c>
       <c r="E14" s="3">
-        <v>29500</v>
+        <v>29800</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1587200</v>
+        <v>1599400</v>
       </c>
       <c r="E17" s="3">
-        <v>955300</v>
+        <v>962600</v>
       </c>
       <c r="F17" s="3">
-        <v>266800</v>
+        <v>268900</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-672200</v>
+        <v>-677400</v>
       </c>
       <c r="E18" s="3">
-        <v>-591900</v>
+        <v>-596400</v>
       </c>
       <c r="F18" s="3">
-        <v>-265300</v>
+        <v>-267300</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>248200</v>
+        <v>250100</v>
       </c>
       <c r="E20" s="3">
-        <v>18900</v>
+        <v>19100</v>
       </c>
       <c r="F20" s="3">
-        <v>47200</v>
+        <v>47600</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-372600</v>
+        <v>-375300</v>
       </c>
       <c r="E21" s="3">
-        <v>-551300</v>
+        <v>-555400</v>
       </c>
       <c r="F21" s="3">
-        <v>-208500</v>
+        <v>-210100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1087,7 +1087,7 @@
         <v>3500</v>
       </c>
       <c r="E22" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="F22" s="3">
         <v>900</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-427500</v>
+        <v>-430800</v>
       </c>
       <c r="E23" s="3">
-        <v>-578000</v>
+        <v>-582400</v>
       </c>
       <c r="F23" s="3">
-        <v>-219000</v>
+        <v>-220700</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-427700</v>
+        <v>-431000</v>
       </c>
       <c r="E26" s="3">
-        <v>-578000</v>
+        <v>-582400</v>
       </c>
       <c r="F26" s="3">
-        <v>-219000</v>
+        <v>-220700</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-765500</v>
+        <v>-771400</v>
       </c>
       <c r="E27" s="3">
-        <v>-726900</v>
+        <v>-732400</v>
       </c>
       <c r="F27" s="3">
-        <v>-353000</v>
+        <v>-355700</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-248200</v>
+        <v>-250100</v>
       </c>
       <c r="E32" s="3">
-        <v>-18900</v>
+        <v>-19100</v>
       </c>
       <c r="F32" s="3">
-        <v>-47200</v>
+        <v>-47600</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-765500</v>
+        <v>-771400</v>
       </c>
       <c r="E33" s="3">
-        <v>-726900</v>
+        <v>-732400</v>
       </c>
       <c r="F33" s="3">
-        <v>-353000</v>
+        <v>-355700</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-765500</v>
+        <v>-771400</v>
       </c>
       <c r="E35" s="3">
-        <v>-726900</v>
+        <v>-732400</v>
       </c>
       <c r="F35" s="3">
-        <v>-353000</v>
+        <v>-355700</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4726400</v>
+        <v>4762700</v>
       </c>
       <c r="E41" s="3">
-        <v>304800</v>
+        <v>307100</v>
       </c>
       <c r="F41" s="3">
-        <v>373700</v>
+        <v>376500</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>441600</v>
+        <v>445000</v>
       </c>
       <c r="E42" s="3">
-        <v>63900</v>
+        <v>64300</v>
       </c>
       <c r="F42" s="3">
-        <v>351700</v>
+        <v>354400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>282900</v>
+        <v>285100</v>
       </c>
       <c r="E43" s="3">
-        <v>207300</v>
+        <v>208800</v>
       </c>
       <c r="F43" s="3">
-        <v>170300</v>
+        <v>171600</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>210300</v>
+        <v>211900</v>
       </c>
       <c r="E44" s="3">
-        <v>71100</v>
+        <v>71600</v>
       </c>
       <c r="F44" s="3">
-        <v>26500</v>
+        <v>26700</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>550900</v>
+        <v>555200</v>
       </c>
       <c r="E45" s="3">
-        <v>129600</v>
+        <v>130600</v>
       </c>
       <c r="F45" s="3">
-        <v>34300</v>
+        <v>34500</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6212200</v>
+        <v>6259800</v>
       </c>
       <c r="E46" s="3">
-        <v>776600</v>
+        <v>782600</v>
       </c>
       <c r="F46" s="3">
-        <v>956400</v>
+        <v>963800</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1747,10 +1747,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>62400</v>
+        <v>62900</v>
       </c>
       <c r="E47" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>554600</v>
+        <v>558900</v>
       </c>
       <c r="E48" s="3">
-        <v>574600</v>
+        <v>579000</v>
       </c>
       <c r="F48" s="3">
-        <v>188700</v>
+        <v>190200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>134300</v>
+        <v>135300</v>
       </c>
       <c r="E49" s="3">
-        <v>58400</v>
+        <v>58900</v>
       </c>
       <c r="F49" s="3">
-        <v>48400</v>
+        <v>48800</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>35800</v>
+        <v>36100</v>
       </c>
       <c r="E52" s="3">
-        <v>21500</v>
+        <v>21700</v>
       </c>
       <c r="F52" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6999300</v>
+        <v>7052900</v>
       </c>
       <c r="E54" s="3">
-        <v>1448400</v>
+        <v>1459500</v>
       </c>
       <c r="F54" s="3">
-        <v>1201300</v>
+        <v>1210500</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800300</v>
+        <v>806400</v>
       </c>
       <c r="E57" s="3">
-        <v>149300</v>
+        <v>150500</v>
       </c>
       <c r="F57" s="3">
-        <v>33600</v>
+        <v>33900</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27100</v>
+        <v>27300</v>
       </c>
       <c r="E58" s="3">
-        <v>75100</v>
+        <v>75700</v>
       </c>
       <c r="F58" s="3">
-        <v>31300</v>
+        <v>31600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>399600</v>
+        <v>402700</v>
       </c>
       <c r="E59" s="3">
-        <v>291800</v>
+        <v>294000</v>
       </c>
       <c r="F59" s="3">
-        <v>87400</v>
+        <v>88000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1227000</v>
+        <v>1236400</v>
       </c>
       <c r="E60" s="3">
-        <v>516300</v>
+        <v>520200</v>
       </c>
       <c r="F60" s="3">
-        <v>152300</v>
+        <v>153500</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>257500</v>
+        <v>259500</v>
       </c>
       <c r="E61" s="3">
-        <v>264600</v>
+        <v>266600</v>
       </c>
       <c r="F61" s="3">
-        <v>156600</v>
+        <v>157800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>124400</v>
+        <v>125400</v>
       </c>
       <c r="E62" s="3">
-        <v>219300</v>
+        <v>221000</v>
       </c>
       <c r="F62" s="3">
-        <v>141800</v>
+        <v>142900</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1609000</v>
+        <v>1621300</v>
       </c>
       <c r="E66" s="3">
-        <v>1000200</v>
+        <v>1007800</v>
       </c>
       <c r="F66" s="3">
-        <v>450700</v>
+        <v>454200</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1517600</v>
+        <v>1529200</v>
       </c>
       <c r="F70" s="3">
-        <v>1092700</v>
+        <v>1101100</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1772600</v>
+        <v>-1786200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1068400</v>
+        <v>-1076600</v>
       </c>
       <c r="F72" s="3">
-        <v>-341700</v>
+        <v>-344300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5390300</v>
+        <v>5431600</v>
       </c>
       <c r="E76" s="3">
-        <v>-1069400</v>
+        <v>-1077500</v>
       </c>
       <c r="F76" s="3">
-        <v>-342100</v>
+        <v>-344800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-765500</v>
+        <v>-771400</v>
       </c>
       <c r="E81" s="3">
-        <v>-726900</v>
+        <v>-732400</v>
       </c>
       <c r="F81" s="3">
-        <v>-353000</v>
+        <v>-355700</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,10 +2708,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>51400</v>
+        <v>51800</v>
       </c>
       <c r="E83" s="3">
-        <v>21700</v>
+        <v>21800</v>
       </c>
       <c r="F83" s="3">
         <v>9600</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-21900</v>
+        <v>-22000</v>
       </c>
       <c r="E89" s="3">
-        <v>-557800</v>
+        <v>-562100</v>
       </c>
       <c r="F89" s="3">
-        <v>-246200</v>
+        <v>-248100</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-126200</v>
+        <v>-127200</v>
       </c>
       <c r="E91" s="3">
-        <v>-286800</v>
+        <v>-289000</v>
       </c>
       <c r="F91" s="3">
-        <v>-120600</v>
+        <v>-121500</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-689800</v>
+        <v>-695100</v>
       </c>
       <c r="E94" s="3">
-        <v>115900</v>
+        <v>116800</v>
       </c>
       <c r="F94" s="3">
-        <v>-568400</v>
+        <v>-572700</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5374700</v>
+        <v>5415900</v>
       </c>
       <c r="E100" s="3">
-        <v>562600</v>
+        <v>566900</v>
       </c>
       <c r="F100" s="3">
-        <v>1054300</v>
+        <v>1062400</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-101800</v>
+        <v>-102600</v>
       </c>
       <c r="E101" s="3">
         <v>800</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4561200</v>
+        <v>4596100</v>
       </c>
       <c r="E102" s="3">
-        <v>121500</v>
+        <v>122500</v>
       </c>
       <c r="F102" s="3">
-        <v>237400</v>
+        <v>239200</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,23 +708,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>922000</v>
+        <v>3092800</v>
       </c>
       <c r="E8" s="3">
-        <v>366200</v>
+        <v>861200</v>
       </c>
       <c r="F8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>342100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1400</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -738,23 +741,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>855400</v>
+        <v>2677300</v>
       </c>
       <c r="E9" s="3">
-        <v>424500</v>
+        <v>799100</v>
       </c>
       <c r="F9" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>396500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1800</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -768,23 +774,26 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>66600</v>
+        <v>415500</v>
       </c>
       <c r="E10" s="3">
-        <v>-58300</v>
+        <v>62200</v>
       </c>
       <c r="F10" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>-54400</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-300</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,22 +825,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>272300</v>
+        <v>606300</v>
       </c>
       <c r="E12" s="3">
-        <v>326600</v>
+        <v>254300</v>
       </c>
       <c r="F12" s="3">
-        <v>165800</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>305100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>154900</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,23 +888,26 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24600</v>
+        <v>29000</v>
       </c>
       <c r="E14" s="3">
-        <v>29800</v>
+        <v>23000</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>27800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -902,9 +921,12 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,22 +969,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1599400</v>
+        <v>4062400</v>
       </c>
       <c r="E17" s="3">
-        <v>962600</v>
+        <v>1493900</v>
       </c>
       <c r="F17" s="3">
-        <v>268900</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>899200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>251200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -973,23 +999,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-677400</v>
+        <v>-969500</v>
       </c>
       <c r="E18" s="3">
-        <v>-596400</v>
+        <v>-632700</v>
       </c>
       <c r="F18" s="3">
-        <v>-267300</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-557100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-249700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,22 +1050,23 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>250100</v>
+        <v>264900</v>
       </c>
       <c r="E20" s="3">
-        <v>19100</v>
+        <v>233600</v>
       </c>
       <c r="F20" s="3">
-        <v>47600</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>17800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>44400</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1047,23 +1080,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-375300</v>
+        <v>-614000</v>
       </c>
       <c r="E21" s="3">
-        <v>-555400</v>
+        <v>-350200</v>
       </c>
       <c r="F21" s="3">
-        <v>-210100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-518700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-196200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1077,24 +1113,27 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3500</v>
+        <v>8200</v>
       </c>
       <c r="E22" s="3">
-        <v>5100</v>
+        <v>3300</v>
       </c>
       <c r="F22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,23 +1146,26 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-430800</v>
+        <v>-712800</v>
       </c>
       <c r="E23" s="3">
-        <v>-582400</v>
+        <v>-402400</v>
       </c>
       <c r="F23" s="3">
-        <v>-220700</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-544000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-206100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1137,23 +1179,26 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,23 +1245,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-431000</v>
+        <v>-716600</v>
       </c>
       <c r="E26" s="3">
-        <v>-582400</v>
+        <v>-402600</v>
       </c>
       <c r="F26" s="3">
-        <v>-220700</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-544000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-206100</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1227,23 +1278,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-771400</v>
+        <v>-716600</v>
       </c>
       <c r="E27" s="3">
-        <v>-732400</v>
+        <v>-720600</v>
       </c>
       <c r="F27" s="3">
-        <v>-355700</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-684200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-332300</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,23 +1443,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-250100</v>
+        <v>-264900</v>
       </c>
       <c r="E32" s="3">
-        <v>-19100</v>
+        <v>-233600</v>
       </c>
       <c r="F32" s="3">
-        <v>-47600</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>-17800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-44400</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1407,23 +1476,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-771400</v>
+        <v>-716600</v>
       </c>
       <c r="E33" s="3">
-        <v>-732400</v>
+        <v>-720600</v>
       </c>
       <c r="F33" s="3">
-        <v>-355700</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-684200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-332300</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,23 +1542,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-771400</v>
+        <v>-716600</v>
       </c>
       <c r="E35" s="3">
-        <v>-732400</v>
+        <v>-720600</v>
       </c>
       <c r="F35" s="3">
-        <v>-355700</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-684200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-332300</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4762700</v>
+        <v>5435100</v>
       </c>
       <c r="E41" s="3">
-        <v>307100</v>
+        <v>4448700</v>
       </c>
       <c r="F41" s="3">
-        <v>376500</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>286900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>351700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,23 +1676,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>445000</v>
+        <v>417600</v>
       </c>
       <c r="E42" s="3">
-        <v>64300</v>
+        <v>415700</v>
       </c>
       <c r="F42" s="3">
-        <v>354400</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>60100</v>
+      </c>
+      <c r="G42" s="3">
+        <v>331000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1620,23 +1709,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>285100</v>
+        <v>612500</v>
       </c>
       <c r="E43" s="3">
-        <v>208800</v>
+        <v>266300</v>
       </c>
       <c r="F43" s="3">
-        <v>171600</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>195100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>160300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,23 +1742,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>211900</v>
+        <v>392300</v>
       </c>
       <c r="E44" s="3">
-        <v>71600</v>
+        <v>197900</v>
       </c>
       <c r="F44" s="3">
-        <v>26700</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>66900</v>
+      </c>
+      <c r="G44" s="3">
+        <v>25000</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1680,23 +1775,26 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>555200</v>
+        <v>338300</v>
       </c>
       <c r="E45" s="3">
-        <v>130600</v>
+        <v>518600</v>
       </c>
       <c r="F45" s="3">
-        <v>34500</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>122000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>32300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1710,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6259800</v>
+        <v>7195700</v>
       </c>
       <c r="E46" s="3">
-        <v>782600</v>
+        <v>5847100</v>
       </c>
       <c r="F46" s="3">
-        <v>963800</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>731000</v>
+      </c>
+      <c r="G46" s="3">
+        <v>900200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,23 +1841,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>62900</v>
+        <v>977000</v>
       </c>
       <c r="E47" s="3">
-        <v>17300</v>
+        <v>58700</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>16200</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1770,23 +1874,26 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>558900</v>
+        <v>1029400</v>
       </c>
       <c r="E48" s="3">
-        <v>579000</v>
+        <v>522100</v>
       </c>
       <c r="F48" s="3">
-        <v>190200</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>540800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>177600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1800,23 +1907,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>135300</v>
+        <v>217200</v>
       </c>
       <c r="E49" s="3">
-        <v>58900</v>
+        <v>126400</v>
       </c>
       <c r="F49" s="3">
-        <v>48800</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>55000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>45600</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,23 +2006,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>36100</v>
+        <v>255000</v>
       </c>
       <c r="E52" s="3">
-        <v>21700</v>
+        <v>33700</v>
       </c>
       <c r="F52" s="3">
-        <v>7800</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>20300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>7300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7052900</v>
+        <v>9674400</v>
       </c>
       <c r="E54" s="3">
-        <v>1459500</v>
+        <v>6588000</v>
       </c>
       <c r="F54" s="3">
-        <v>1210500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>1363300</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1130700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,22 +2138,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>806400</v>
+        <v>1821700</v>
       </c>
       <c r="E57" s="3">
-        <v>150500</v>
+        <v>753300</v>
       </c>
       <c r="F57" s="3">
-        <v>33900</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>140600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>31700</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2038,23 +2168,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27300</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>75700</v>
+        <v>25500</v>
       </c>
       <c r="F58" s="3">
-        <v>31600</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>70700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>29500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2068,23 +2201,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>402700</v>
+        <v>832700</v>
       </c>
       <c r="E59" s="3">
-        <v>294000</v>
+        <v>376200</v>
       </c>
       <c r="F59" s="3">
-        <v>88000</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>274600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>82200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,23 +2234,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1236400</v>
+        <v>2654300</v>
       </c>
       <c r="E60" s="3">
-        <v>520200</v>
+        <v>1154900</v>
       </c>
       <c r="F60" s="3">
-        <v>153500</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>485900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>143400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2128,23 +2267,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>259500</v>
+        <v>246800</v>
       </c>
       <c r="E61" s="3">
-        <v>266600</v>
+        <v>242400</v>
       </c>
       <c r="F61" s="3">
-        <v>157800</v>
+        <v>249000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>147400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2158,23 +2300,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>125400</v>
+        <v>310800</v>
       </c>
       <c r="E62" s="3">
-        <v>221000</v>
+        <v>117100</v>
       </c>
       <c r="F62" s="3">
-        <v>142900</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>206400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>133500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1621300</v>
+        <v>3463700</v>
       </c>
       <c r="E66" s="3">
-        <v>1007800</v>
+        <v>1514400</v>
       </c>
       <c r="F66" s="3">
-        <v>454200</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>941400</v>
+      </c>
+      <c r="G66" s="3">
+        <v>424200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1529200</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1101100</v>
+        <v>1428400</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>1028500</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1786200</v>
+        <v>-2385100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1076600</v>
+        <v>-1668500</v>
       </c>
       <c r="F72" s="3">
-        <v>-344300</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-1005700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-321600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5431600</v>
+        <v>6210700</v>
       </c>
       <c r="E76" s="3">
-        <v>-1077500</v>
+        <v>5073600</v>
       </c>
       <c r="F76" s="3">
-        <v>-344800</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-1006500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-322000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,23 +2848,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-771400</v>
+        <v>-716600</v>
       </c>
       <c r="E81" s="3">
-        <v>-732400</v>
+        <v>-720600</v>
       </c>
       <c r="F81" s="3">
-        <v>-355700</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-684200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-332300</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,22 +2899,23 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>51800</v>
+        <v>89700</v>
       </c>
       <c r="E83" s="3">
-        <v>21800</v>
+        <v>48400</v>
       </c>
       <c r="F83" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>20400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>9000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,23 +3094,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-22000</v>
+        <v>-161300</v>
       </c>
       <c r="E89" s="3">
-        <v>-562100</v>
+        <v>-20600</v>
       </c>
       <c r="F89" s="3">
-        <v>-248100</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-525000</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-231800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,22 +3145,23 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-127200</v>
+        <v>-338900</v>
       </c>
       <c r="E91" s="3">
-        <v>-289000</v>
+        <v>-118800</v>
       </c>
       <c r="F91" s="3">
-        <v>-121500</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-269900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-113500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,23 +3241,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-695100</v>
+        <v>-4874100</v>
       </c>
       <c r="E94" s="3">
-        <v>116800</v>
+        <v>-649300</v>
       </c>
       <c r="F94" s="3">
-        <v>-572700</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>109100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-535000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,23 +3421,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5415900</v>
+        <v>2155400</v>
       </c>
       <c r="E100" s="3">
-        <v>566900</v>
+        <v>5058800</v>
       </c>
       <c r="F100" s="3">
-        <v>1062400</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>529500</v>
+      </c>
+      <c r="G100" s="3">
+        <v>992400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3209,23 +3454,26 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-102600</v>
+        <v>-53500</v>
       </c>
       <c r="E101" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>-2200</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3239,23 +3487,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4596100</v>
+        <v>-2933400</v>
       </c>
       <c r="E102" s="3">
-        <v>122500</v>
+        <v>4293200</v>
       </c>
       <c r="F102" s="3">
-        <v>239200</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>114400</v>
+      </c>
+      <c r="G102" s="3">
+        <v>223500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
@@ -718,13 +718,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3092800</v>
+        <v>3064900</v>
       </c>
       <c r="E8" s="3">
-        <v>861200</v>
+        <v>853400</v>
       </c>
       <c r="F8" s="3">
-        <v>342100</v>
+        <v>339000</v>
       </c>
       <c r="G8" s="3">
         <v>1400</v>
@@ -751,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2677300</v>
+        <v>2653200</v>
       </c>
       <c r="E9" s="3">
-        <v>799100</v>
+        <v>791800</v>
       </c>
       <c r="F9" s="3">
-        <v>396500</v>
+        <v>392900</v>
       </c>
       <c r="G9" s="3">
         <v>1800</v>
@@ -784,13 +784,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>415500</v>
+        <v>411700</v>
       </c>
       <c r="E10" s="3">
-        <v>62200</v>
+        <v>61600</v>
       </c>
       <c r="F10" s="3">
-        <v>-54400</v>
+        <v>-54000</v>
       </c>
       <c r="G10" s="3">
         <v>-300</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>606300</v>
+        <v>600800</v>
       </c>
       <c r="E12" s="3">
-        <v>254300</v>
+        <v>252000</v>
       </c>
       <c r="F12" s="3">
-        <v>305100</v>
+        <v>302300</v>
       </c>
       <c r="G12" s="3">
-        <v>154900</v>
+        <v>153500</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,13 +898,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>29000</v>
+        <v>28800</v>
       </c>
       <c r="E14" s="3">
-        <v>23000</v>
+        <v>22800</v>
       </c>
       <c r="F14" s="3">
-        <v>27800</v>
+        <v>27600</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4062400</v>
+        <v>4025700</v>
       </c>
       <c r="E17" s="3">
-        <v>1493900</v>
+        <v>1480500</v>
       </c>
       <c r="F17" s="3">
-        <v>899200</v>
+        <v>891000</v>
       </c>
       <c r="G17" s="3">
-        <v>251200</v>
+        <v>248900</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-969500</v>
+        <v>-960800</v>
       </c>
       <c r="E18" s="3">
-        <v>-632700</v>
+        <v>-627000</v>
       </c>
       <c r="F18" s="3">
-        <v>-557100</v>
+        <v>-552100</v>
       </c>
       <c r="G18" s="3">
-        <v>-249700</v>
+        <v>-247500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>264900</v>
+        <v>262500</v>
       </c>
       <c r="E20" s="3">
-        <v>233600</v>
+        <v>231500</v>
       </c>
       <c r="F20" s="3">
-        <v>17800</v>
+        <v>17700</v>
       </c>
       <c r="G20" s="3">
-        <v>44400</v>
+        <v>44000</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-614000</v>
+        <v>-609500</v>
       </c>
       <c r="E21" s="3">
-        <v>-350200</v>
+        <v>-347600</v>
       </c>
       <c r="F21" s="3">
-        <v>-518700</v>
+        <v>-514200</v>
       </c>
       <c r="G21" s="3">
-        <v>-196200</v>
+        <v>-194500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="E22" s="3">
         <v>3300</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-712800</v>
+        <v>-706400</v>
       </c>
       <c r="E23" s="3">
-        <v>-402400</v>
+        <v>-398800</v>
       </c>
       <c r="F23" s="3">
-        <v>-544000</v>
+        <v>-539100</v>
       </c>
       <c r="G23" s="3">
-        <v>-206100</v>
+        <v>-204300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-716600</v>
+        <v>-710200</v>
       </c>
       <c r="E26" s="3">
-        <v>-402600</v>
+        <v>-399000</v>
       </c>
       <c r="F26" s="3">
-        <v>-544000</v>
+        <v>-539100</v>
       </c>
       <c r="G26" s="3">
-        <v>-206100</v>
+        <v>-204300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-716600</v>
+        <v>-710200</v>
       </c>
       <c r="E27" s="3">
-        <v>-720600</v>
+        <v>-714000</v>
       </c>
       <c r="F27" s="3">
-        <v>-684200</v>
+        <v>-678000</v>
       </c>
       <c r="G27" s="3">
-        <v>-332300</v>
+        <v>-329300</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-264900</v>
+        <v>-262500</v>
       </c>
       <c r="E32" s="3">
-        <v>-233600</v>
+        <v>-231500</v>
       </c>
       <c r="F32" s="3">
-        <v>-17800</v>
+        <v>-17700</v>
       </c>
       <c r="G32" s="3">
-        <v>-44400</v>
+        <v>-44000</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-716600</v>
+        <v>-710200</v>
       </c>
       <c r="E33" s="3">
-        <v>-720600</v>
+        <v>-714000</v>
       </c>
       <c r="F33" s="3">
-        <v>-684200</v>
+        <v>-678000</v>
       </c>
       <c r="G33" s="3">
-        <v>-332300</v>
+        <v>-329300</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-716600</v>
+        <v>-710200</v>
       </c>
       <c r="E35" s="3">
-        <v>-720600</v>
+        <v>-714000</v>
       </c>
       <c r="F35" s="3">
-        <v>-684200</v>
+        <v>-678000</v>
       </c>
       <c r="G35" s="3">
-        <v>-332300</v>
+        <v>-329300</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5435100</v>
+        <v>5386000</v>
       </c>
       <c r="E41" s="3">
-        <v>4448700</v>
+        <v>4408500</v>
       </c>
       <c r="F41" s="3">
-        <v>286900</v>
+        <v>284300</v>
       </c>
       <c r="G41" s="3">
-        <v>351700</v>
+        <v>348600</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>417600</v>
+        <v>413800</v>
       </c>
       <c r="E42" s="3">
-        <v>415700</v>
+        <v>411900</v>
       </c>
       <c r="F42" s="3">
-        <v>60100</v>
+        <v>59600</v>
       </c>
       <c r="G42" s="3">
-        <v>331000</v>
+        <v>328000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>612500</v>
+        <v>607000</v>
       </c>
       <c r="E43" s="3">
-        <v>266300</v>
+        <v>263900</v>
       </c>
       <c r="F43" s="3">
-        <v>195100</v>
+        <v>193300</v>
       </c>
       <c r="G43" s="3">
-        <v>160300</v>
+        <v>158800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>392300</v>
+        <v>388700</v>
       </c>
       <c r="E44" s="3">
-        <v>197900</v>
+        <v>196100</v>
       </c>
       <c r="F44" s="3">
-        <v>66900</v>
+        <v>66300</v>
       </c>
       <c r="G44" s="3">
-        <v>25000</v>
+        <v>24700</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>338300</v>
+        <v>335300</v>
       </c>
       <c r="E45" s="3">
-        <v>518600</v>
+        <v>513900</v>
       </c>
       <c r="F45" s="3">
-        <v>122000</v>
+        <v>120900</v>
       </c>
       <c r="G45" s="3">
-        <v>32300</v>
+        <v>32000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7195700</v>
+        <v>7130800</v>
       </c>
       <c r="E46" s="3">
-        <v>5847100</v>
+        <v>5794400</v>
       </c>
       <c r="F46" s="3">
-        <v>731000</v>
+        <v>724400</v>
       </c>
       <c r="G46" s="3">
-        <v>900200</v>
+        <v>892100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,13 +1851,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>977000</v>
+        <v>968200</v>
       </c>
       <c r="E47" s="3">
-        <v>58700</v>
+        <v>58200</v>
       </c>
       <c r="F47" s="3">
-        <v>16200</v>
+        <v>16100</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1029400</v>
+        <v>1020200</v>
       </c>
       <c r="E48" s="3">
-        <v>522100</v>
+        <v>517300</v>
       </c>
       <c r="F48" s="3">
-        <v>540800</v>
+        <v>535900</v>
       </c>
       <c r="G48" s="3">
-        <v>177600</v>
+        <v>176000</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>217200</v>
+        <v>215300</v>
       </c>
       <c r="E49" s="3">
-        <v>126400</v>
+        <v>125300</v>
       </c>
       <c r="F49" s="3">
-        <v>55000</v>
+        <v>54500</v>
       </c>
       <c r="G49" s="3">
-        <v>45600</v>
+        <v>45200</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>255000</v>
+        <v>252700</v>
       </c>
       <c r="E52" s="3">
-        <v>33700</v>
+        <v>33400</v>
       </c>
       <c r="F52" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="G52" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9674400</v>
+        <v>9587100</v>
       </c>
       <c r="E54" s="3">
-        <v>6588000</v>
+        <v>6528500</v>
       </c>
       <c r="F54" s="3">
-        <v>1363300</v>
+        <v>1351000</v>
       </c>
       <c r="G54" s="3">
-        <v>1130700</v>
+        <v>1120500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1821700</v>
+        <v>1805300</v>
       </c>
       <c r="E57" s="3">
-        <v>753300</v>
+        <v>746500</v>
       </c>
       <c r="F57" s="3">
-        <v>140600</v>
+        <v>139300</v>
       </c>
       <c r="G57" s="3">
-        <v>31700</v>
+        <v>31400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2181,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>25500</v>
+        <v>25200</v>
       </c>
       <c r="F58" s="3">
-        <v>70700</v>
+        <v>70100</v>
       </c>
       <c r="G58" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>832700</v>
+        <v>825100</v>
       </c>
       <c r="E59" s="3">
-        <v>376200</v>
+        <v>372800</v>
       </c>
       <c r="F59" s="3">
-        <v>274600</v>
+        <v>272200</v>
       </c>
       <c r="G59" s="3">
-        <v>82200</v>
+        <v>81500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2654300</v>
+        <v>2630400</v>
       </c>
       <c r="E60" s="3">
-        <v>1154900</v>
+        <v>1144500</v>
       </c>
       <c r="F60" s="3">
-        <v>485900</v>
+        <v>481600</v>
       </c>
       <c r="G60" s="3">
-        <v>143400</v>
+        <v>142100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>244600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>240200</v>
+      </c>
+      <c r="F61" s="3">
         <v>246800</v>
       </c>
-      <c r="E61" s="3">
-        <v>242400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>249000</v>
-      </c>
       <c r="G61" s="3">
-        <v>147400</v>
+        <v>146000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>310800</v>
+        <v>308000</v>
       </c>
       <c r="E62" s="3">
-        <v>117100</v>
+        <v>116100</v>
       </c>
       <c r="F62" s="3">
-        <v>206400</v>
+        <v>204500</v>
       </c>
       <c r="G62" s="3">
-        <v>133500</v>
+        <v>132300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3463700</v>
+        <v>3432400</v>
       </c>
       <c r="E66" s="3">
-        <v>1514400</v>
+        <v>1500700</v>
       </c>
       <c r="F66" s="3">
-        <v>941400</v>
+        <v>932900</v>
       </c>
       <c r="G66" s="3">
-        <v>424200</v>
+        <v>420400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1428400</v>
+        <v>1415500</v>
       </c>
       <c r="G70" s="3">
-        <v>1028500</v>
+        <v>1019200</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2385100</v>
+        <v>-2363600</v>
       </c>
       <c r="E72" s="3">
-        <v>-1668500</v>
+        <v>-1653400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1005700</v>
+        <v>-996600</v>
       </c>
       <c r="G72" s="3">
-        <v>-321600</v>
+        <v>-318700</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6210700</v>
+        <v>6154700</v>
       </c>
       <c r="E76" s="3">
-        <v>5073600</v>
+        <v>5027800</v>
       </c>
       <c r="F76" s="3">
-        <v>-1006500</v>
+        <v>-997400</v>
       </c>
       <c r="G76" s="3">
-        <v>-322000</v>
+        <v>-319100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-716600</v>
+        <v>-710200</v>
       </c>
       <c r="E81" s="3">
-        <v>-720600</v>
+        <v>-714000</v>
       </c>
       <c r="F81" s="3">
-        <v>-684200</v>
+        <v>-678000</v>
       </c>
       <c r="G81" s="3">
-        <v>-332300</v>
+        <v>-329300</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>89700</v>
+        <v>88900</v>
       </c>
       <c r="E83" s="3">
-        <v>48400</v>
+        <v>48000</v>
       </c>
       <c r="F83" s="3">
-        <v>20400</v>
+        <v>20200</v>
       </c>
       <c r="G83" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-161300</v>
+        <v>-159800</v>
       </c>
       <c r="E89" s="3">
-        <v>-20600</v>
+        <v>-20400</v>
       </c>
       <c r="F89" s="3">
-        <v>-525000</v>
+        <v>-520300</v>
       </c>
       <c r="G89" s="3">
-        <v>-231800</v>
+        <v>-229700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-338900</v>
+        <v>-335800</v>
       </c>
       <c r="E91" s="3">
-        <v>-118800</v>
+        <v>-117700</v>
       </c>
       <c r="F91" s="3">
-        <v>-269900</v>
+        <v>-267500</v>
       </c>
       <c r="G91" s="3">
-        <v>-113500</v>
+        <v>-112500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4874100</v>
+        <v>-4830100</v>
       </c>
       <c r="E94" s="3">
-        <v>-649300</v>
+        <v>-643400</v>
       </c>
       <c r="F94" s="3">
-        <v>109100</v>
+        <v>108100</v>
       </c>
       <c r="G94" s="3">
-        <v>-535000</v>
+        <v>-530100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2155400</v>
+        <v>2136000</v>
       </c>
       <c r="E100" s="3">
-        <v>5058800</v>
+        <v>5013200</v>
       </c>
       <c r="F100" s="3">
-        <v>529500</v>
+        <v>524800</v>
       </c>
       <c r="G100" s="3">
-        <v>992400</v>
+        <v>983400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-53500</v>
+        <v>-53000</v>
       </c>
       <c r="E101" s="3">
-        <v>-95800</v>
+        <v>-94900</v>
       </c>
       <c r="F101" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G101" s="3">
         <v>-2200</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2933400</v>
+        <v>-2907000</v>
       </c>
       <c r="E102" s="3">
-        <v>4293200</v>
+        <v>4254400</v>
       </c>
       <c r="F102" s="3">
-        <v>114400</v>
+        <v>113400</v>
       </c>
       <c r="G102" s="3">
-        <v>223500</v>
+        <v>221400</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
@@ -718,13 +718,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3064900</v>
+        <v>2921500</v>
       </c>
       <c r="E8" s="3">
-        <v>853400</v>
+        <v>813500</v>
       </c>
       <c r="F8" s="3">
-        <v>339000</v>
+        <v>323100</v>
       </c>
       <c r="G8" s="3">
         <v>1400</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2653200</v>
+        <v>2529100</v>
       </c>
       <c r="E9" s="3">
-        <v>791800</v>
+        <v>754800</v>
       </c>
       <c r="F9" s="3">
-        <v>392900</v>
+        <v>374500</v>
       </c>
       <c r="G9" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,13 +784,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>411700</v>
+        <v>392500</v>
       </c>
       <c r="E10" s="3">
-        <v>61600</v>
+        <v>58700</v>
       </c>
       <c r="F10" s="3">
-        <v>-54000</v>
+        <v>-51400</v>
       </c>
       <c r="G10" s="3">
         <v>-300</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>600800</v>
+        <v>572700</v>
       </c>
       <c r="E12" s="3">
-        <v>252000</v>
+        <v>240200</v>
       </c>
       <c r="F12" s="3">
-        <v>302300</v>
+        <v>288200</v>
       </c>
       <c r="G12" s="3">
-        <v>153500</v>
+        <v>146300</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,13 +898,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>28800</v>
+        <v>27400</v>
       </c>
       <c r="E14" s="3">
-        <v>22800</v>
+        <v>21700</v>
       </c>
       <c r="F14" s="3">
-        <v>27600</v>
+        <v>26300</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4025700</v>
+        <v>3837400</v>
       </c>
       <c r="E17" s="3">
-        <v>1480500</v>
+        <v>1411200</v>
       </c>
       <c r="F17" s="3">
-        <v>891000</v>
+        <v>849400</v>
       </c>
       <c r="G17" s="3">
-        <v>248900</v>
+        <v>237200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-960800</v>
+        <v>-915900</v>
       </c>
       <c r="E18" s="3">
-        <v>-627000</v>
+        <v>-597700</v>
       </c>
       <c r="F18" s="3">
-        <v>-552100</v>
+        <v>-526300</v>
       </c>
       <c r="G18" s="3">
-        <v>-247500</v>
+        <v>-235900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>262500</v>
+        <v>250200</v>
       </c>
       <c r="E20" s="3">
-        <v>231500</v>
+        <v>220700</v>
       </c>
       <c r="F20" s="3">
-        <v>17700</v>
+        <v>16800</v>
       </c>
       <c r="G20" s="3">
-        <v>44000</v>
+        <v>42000</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-609500</v>
+        <v>-581500</v>
       </c>
       <c r="E21" s="3">
-        <v>-347600</v>
+        <v>-331600</v>
       </c>
       <c r="F21" s="3">
-        <v>-514200</v>
+        <v>-490300</v>
       </c>
       <c r="G21" s="3">
-        <v>-194500</v>
+        <v>-185500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,16 +1123,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8100</v>
+        <v>7700</v>
       </c>
       <c r="E22" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="F22" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="G22" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-706400</v>
+        <v>-673300</v>
       </c>
       <c r="E23" s="3">
-        <v>-398800</v>
+        <v>-380100</v>
       </c>
       <c r="F23" s="3">
-        <v>-539100</v>
+        <v>-513900</v>
       </c>
       <c r="G23" s="3">
-        <v>-204300</v>
+        <v>-194700</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-710200</v>
+        <v>-676900</v>
       </c>
       <c r="E26" s="3">
-        <v>-399000</v>
+        <v>-380300</v>
       </c>
       <c r="F26" s="3">
-        <v>-539100</v>
+        <v>-513900</v>
       </c>
       <c r="G26" s="3">
-        <v>-204300</v>
+        <v>-194700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-710200</v>
+        <v>-676900</v>
       </c>
       <c r="E27" s="3">
-        <v>-714000</v>
+        <v>-680700</v>
       </c>
       <c r="F27" s="3">
-        <v>-678000</v>
+        <v>-646300</v>
       </c>
       <c r="G27" s="3">
-        <v>-329300</v>
+        <v>-313900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-262500</v>
+        <v>-250200</v>
       </c>
       <c r="E32" s="3">
-        <v>-231500</v>
+        <v>-220700</v>
       </c>
       <c r="F32" s="3">
-        <v>-17700</v>
+        <v>-16800</v>
       </c>
       <c r="G32" s="3">
-        <v>-44000</v>
+        <v>-42000</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-710200</v>
+        <v>-676900</v>
       </c>
       <c r="E33" s="3">
-        <v>-714000</v>
+        <v>-680700</v>
       </c>
       <c r="F33" s="3">
-        <v>-678000</v>
+        <v>-646300</v>
       </c>
       <c r="G33" s="3">
-        <v>-329300</v>
+        <v>-313900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-710200</v>
+        <v>-676900</v>
       </c>
       <c r="E35" s="3">
-        <v>-714000</v>
+        <v>-680700</v>
       </c>
       <c r="F35" s="3">
-        <v>-678000</v>
+        <v>-646300</v>
       </c>
       <c r="G35" s="3">
-        <v>-329300</v>
+        <v>-313900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5386000</v>
+        <v>5134100</v>
       </c>
       <c r="E41" s="3">
-        <v>4408500</v>
+        <v>4202300</v>
       </c>
       <c r="F41" s="3">
-        <v>284300</v>
+        <v>271000</v>
       </c>
       <c r="G41" s="3">
-        <v>348600</v>
+        <v>332200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>413800</v>
+        <v>394500</v>
       </c>
       <c r="E42" s="3">
-        <v>411900</v>
+        <v>392600</v>
       </c>
       <c r="F42" s="3">
-        <v>59600</v>
+        <v>56800</v>
       </c>
       <c r="G42" s="3">
-        <v>328000</v>
+        <v>312700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>607000</v>
+        <v>578600</v>
       </c>
       <c r="E43" s="3">
-        <v>263900</v>
+        <v>251600</v>
       </c>
       <c r="F43" s="3">
-        <v>193300</v>
+        <v>184300</v>
       </c>
       <c r="G43" s="3">
-        <v>158800</v>
+        <v>151400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>388700</v>
+        <v>370500</v>
       </c>
       <c r="E44" s="3">
-        <v>196100</v>
+        <v>186900</v>
       </c>
       <c r="F44" s="3">
-        <v>66300</v>
+        <v>63200</v>
       </c>
       <c r="G44" s="3">
-        <v>24700</v>
+        <v>23600</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>335300</v>
+        <v>319600</v>
       </c>
       <c r="E45" s="3">
-        <v>513900</v>
+        <v>489800</v>
       </c>
       <c r="F45" s="3">
-        <v>120900</v>
+        <v>115200</v>
       </c>
       <c r="G45" s="3">
-        <v>32000</v>
+        <v>30500</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7130800</v>
+        <v>6797200</v>
       </c>
       <c r="E46" s="3">
-        <v>5794400</v>
+        <v>5523400</v>
       </c>
       <c r="F46" s="3">
-        <v>724400</v>
+        <v>690500</v>
       </c>
       <c r="G46" s="3">
-        <v>892100</v>
+        <v>850400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,13 +1851,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>968200</v>
+        <v>922900</v>
       </c>
       <c r="E47" s="3">
-        <v>58200</v>
+        <v>55500</v>
       </c>
       <c r="F47" s="3">
-        <v>16100</v>
+        <v>15300</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1020200</v>
+        <v>972400</v>
       </c>
       <c r="E48" s="3">
-        <v>517300</v>
+        <v>493100</v>
       </c>
       <c r="F48" s="3">
-        <v>535900</v>
+        <v>510900</v>
       </c>
       <c r="G48" s="3">
-        <v>176000</v>
+        <v>167800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>215300</v>
+        <v>205200</v>
       </c>
       <c r="E49" s="3">
-        <v>125300</v>
+        <v>119400</v>
       </c>
       <c r="F49" s="3">
-        <v>54500</v>
+        <v>51900</v>
       </c>
       <c r="G49" s="3">
-        <v>45200</v>
+        <v>43100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>252700</v>
+        <v>240900</v>
       </c>
       <c r="E52" s="3">
-        <v>33400</v>
+        <v>31800</v>
       </c>
       <c r="F52" s="3">
-        <v>20100</v>
+        <v>19100</v>
       </c>
       <c r="G52" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9587100</v>
+        <v>9138700</v>
       </c>
       <c r="E54" s="3">
-        <v>6528500</v>
+        <v>6223200</v>
       </c>
       <c r="F54" s="3">
-        <v>1351000</v>
+        <v>1287800</v>
       </c>
       <c r="G54" s="3">
-        <v>1120500</v>
+        <v>1068100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1805300</v>
+        <v>1720800</v>
       </c>
       <c r="E57" s="3">
-        <v>746500</v>
+        <v>711600</v>
       </c>
       <c r="F57" s="3">
-        <v>139300</v>
+        <v>132800</v>
       </c>
       <c r="G57" s="3">
-        <v>31400</v>
+        <v>29900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2181,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>25200</v>
+        <v>24100</v>
       </c>
       <c r="F58" s="3">
-        <v>70100</v>
+        <v>66800</v>
       </c>
       <c r="G58" s="3">
-        <v>29200</v>
+        <v>27800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>825100</v>
+        <v>786500</v>
       </c>
       <c r="E59" s="3">
-        <v>372800</v>
+        <v>355300</v>
       </c>
       <c r="F59" s="3">
-        <v>272200</v>
+        <v>259400</v>
       </c>
       <c r="G59" s="3">
-        <v>81500</v>
+        <v>77700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2630400</v>
+        <v>2507400</v>
       </c>
       <c r="E60" s="3">
-        <v>1144500</v>
+        <v>1090900</v>
       </c>
       <c r="F60" s="3">
-        <v>481600</v>
+        <v>459000</v>
       </c>
       <c r="G60" s="3">
-        <v>142100</v>
+        <v>135400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>244600</v>
+        <v>233200</v>
       </c>
       <c r="E61" s="3">
-        <v>240200</v>
+        <v>229000</v>
       </c>
       <c r="F61" s="3">
-        <v>246800</v>
+        <v>235200</v>
       </c>
       <c r="G61" s="3">
-        <v>146000</v>
+        <v>139200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>308000</v>
+        <v>293600</v>
       </c>
       <c r="E62" s="3">
-        <v>116100</v>
+        <v>110600</v>
       </c>
       <c r="F62" s="3">
-        <v>204500</v>
+        <v>195000</v>
       </c>
       <c r="G62" s="3">
-        <v>132300</v>
+        <v>126100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3432400</v>
+        <v>3271900</v>
       </c>
       <c r="E66" s="3">
-        <v>1500700</v>
+        <v>1430600</v>
       </c>
       <c r="F66" s="3">
-        <v>932900</v>
+        <v>889300</v>
       </c>
       <c r="G66" s="3">
-        <v>420400</v>
+        <v>400700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1415500</v>
+        <v>1349300</v>
       </c>
       <c r="G70" s="3">
-        <v>1019200</v>
+        <v>971500</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2363600</v>
+        <v>-2253000</v>
       </c>
       <c r="E72" s="3">
-        <v>-1653400</v>
+        <v>-1576100</v>
       </c>
       <c r="F72" s="3">
-        <v>-996600</v>
+        <v>-950000</v>
       </c>
       <c r="G72" s="3">
-        <v>-318700</v>
+        <v>-303800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6154700</v>
+        <v>5866800</v>
       </c>
       <c r="E76" s="3">
-        <v>5027800</v>
+        <v>4792600</v>
       </c>
       <c r="F76" s="3">
-        <v>-997400</v>
+        <v>-950800</v>
       </c>
       <c r="G76" s="3">
-        <v>-319100</v>
+        <v>-304100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-710200</v>
+        <v>-676900</v>
       </c>
       <c r="E81" s="3">
-        <v>-714000</v>
+        <v>-680700</v>
       </c>
       <c r="F81" s="3">
-        <v>-678000</v>
+        <v>-646300</v>
       </c>
       <c r="G81" s="3">
-        <v>-329300</v>
+        <v>-313900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>88900</v>
+        <v>84700</v>
       </c>
       <c r="E83" s="3">
-        <v>48000</v>
+        <v>45700</v>
       </c>
       <c r="F83" s="3">
-        <v>20200</v>
+        <v>19300</v>
       </c>
       <c r="G83" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-159800</v>
+        <v>-152400</v>
       </c>
       <c r="E89" s="3">
-        <v>-20400</v>
+        <v>-19500</v>
       </c>
       <c r="F89" s="3">
-        <v>-520300</v>
+        <v>-495900</v>
       </c>
       <c r="G89" s="3">
-        <v>-229700</v>
+        <v>-218900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-335800</v>
+        <v>-320100</v>
       </c>
       <c r="E91" s="3">
-        <v>-117700</v>
+        <v>-112200</v>
       </c>
       <c r="F91" s="3">
-        <v>-267500</v>
+        <v>-255000</v>
       </c>
       <c r="G91" s="3">
-        <v>-112500</v>
+        <v>-107200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4830100</v>
+        <v>-4604200</v>
       </c>
       <c r="E94" s="3">
-        <v>-643400</v>
+        <v>-613300</v>
       </c>
       <c r="F94" s="3">
-        <v>108100</v>
+        <v>103000</v>
       </c>
       <c r="G94" s="3">
-        <v>-530100</v>
+        <v>-505300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2136000</v>
+        <v>2036100</v>
       </c>
       <c r="E100" s="3">
-        <v>5013200</v>
+        <v>4778700</v>
       </c>
       <c r="F100" s="3">
-        <v>524800</v>
+        <v>500200</v>
       </c>
       <c r="G100" s="3">
-        <v>983400</v>
+        <v>937400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,16 +3464,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-53000</v>
+        <v>-50600</v>
       </c>
       <c r="E101" s="3">
-        <v>-94900</v>
+        <v>-90500</v>
       </c>
       <c r="F101" s="3">
         <v>700</v>
       </c>
       <c r="G101" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2907000</v>
+        <v>-2771000</v>
       </c>
       <c r="E102" s="3">
-        <v>4254400</v>
+        <v>4055400</v>
       </c>
       <c r="F102" s="3">
-        <v>113400</v>
+        <v>108000</v>
       </c>
       <c r="G102" s="3">
-        <v>221400</v>
+        <v>211100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
@@ -718,13 +718,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2921500</v>
+        <v>3014300</v>
       </c>
       <c r="E8" s="3">
-        <v>813500</v>
+        <v>839400</v>
       </c>
       <c r="F8" s="3">
-        <v>323100</v>
+        <v>333400</v>
       </c>
       <c r="G8" s="3">
         <v>1400</v>
@@ -751,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2529100</v>
+        <v>2609400</v>
       </c>
       <c r="E9" s="3">
-        <v>754800</v>
+        <v>778800</v>
       </c>
       <c r="F9" s="3">
-        <v>374500</v>
+        <v>386400</v>
       </c>
       <c r="G9" s="3">
         <v>1700</v>
@@ -784,13 +784,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>392500</v>
+        <v>404900</v>
       </c>
       <c r="E10" s="3">
-        <v>58700</v>
+        <v>60600</v>
       </c>
       <c r="F10" s="3">
-        <v>-51400</v>
+        <v>-53100</v>
       </c>
       <c r="G10" s="3">
         <v>-300</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>572700</v>
+        <v>590900</v>
       </c>
       <c r="E12" s="3">
-        <v>240200</v>
+        <v>247900</v>
       </c>
       <c r="F12" s="3">
-        <v>288200</v>
+        <v>297300</v>
       </c>
       <c r="G12" s="3">
-        <v>146300</v>
+        <v>151000</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,13 +898,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>27400</v>
+        <v>28300</v>
       </c>
       <c r="E14" s="3">
-        <v>21700</v>
+        <v>22400</v>
       </c>
       <c r="F14" s="3">
-        <v>26300</v>
+        <v>27100</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3837400</v>
+        <v>3959200</v>
       </c>
       <c r="E17" s="3">
-        <v>1411200</v>
+        <v>1456000</v>
       </c>
       <c r="F17" s="3">
-        <v>849400</v>
+        <v>876300</v>
       </c>
       <c r="G17" s="3">
-        <v>237200</v>
+        <v>244800</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-915900</v>
+        <v>-944900</v>
       </c>
       <c r="E18" s="3">
-        <v>-597700</v>
+        <v>-616700</v>
       </c>
       <c r="F18" s="3">
-        <v>-526300</v>
+        <v>-543000</v>
       </c>
       <c r="G18" s="3">
-        <v>-235900</v>
+        <v>-243400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>250200</v>
+        <v>258200</v>
       </c>
       <c r="E20" s="3">
-        <v>220700</v>
+        <v>227700</v>
       </c>
       <c r="F20" s="3">
-        <v>16800</v>
+        <v>17400</v>
       </c>
       <c r="G20" s="3">
-        <v>42000</v>
+        <v>43300</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-581500</v>
+        <v>-599200</v>
       </c>
       <c r="E21" s="3">
-        <v>-331600</v>
+        <v>-341700</v>
       </c>
       <c r="F21" s="3">
-        <v>-490300</v>
+        <v>-505700</v>
       </c>
       <c r="G21" s="3">
-        <v>-185500</v>
+        <v>-191300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,13 +1123,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="E22" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F22" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="G22" s="3">
         <v>800</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-673300</v>
+        <v>-694700</v>
       </c>
       <c r="E23" s="3">
-        <v>-380100</v>
+        <v>-392200</v>
       </c>
       <c r="F23" s="3">
-        <v>-513900</v>
+        <v>-530200</v>
       </c>
       <c r="G23" s="3">
-        <v>-194700</v>
+        <v>-200900</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-676900</v>
+        <v>-698400</v>
       </c>
       <c r="E26" s="3">
-        <v>-380300</v>
+        <v>-392400</v>
       </c>
       <c r="F26" s="3">
-        <v>-513900</v>
+        <v>-530200</v>
       </c>
       <c r="G26" s="3">
-        <v>-194700</v>
+        <v>-200900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-676900</v>
+        <v>-698400</v>
       </c>
       <c r="E27" s="3">
-        <v>-680700</v>
+        <v>-702300</v>
       </c>
       <c r="F27" s="3">
-        <v>-646300</v>
+        <v>-666800</v>
       </c>
       <c r="G27" s="3">
-        <v>-313900</v>
+        <v>-323800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-250200</v>
+        <v>-258200</v>
       </c>
       <c r="E32" s="3">
-        <v>-220700</v>
+        <v>-227700</v>
       </c>
       <c r="F32" s="3">
-        <v>-16800</v>
+        <v>-17400</v>
       </c>
       <c r="G32" s="3">
-        <v>-42000</v>
+        <v>-43300</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-676900</v>
+        <v>-698400</v>
       </c>
       <c r="E33" s="3">
-        <v>-680700</v>
+        <v>-702300</v>
       </c>
       <c r="F33" s="3">
-        <v>-646300</v>
+        <v>-666800</v>
       </c>
       <c r="G33" s="3">
-        <v>-313900</v>
+        <v>-323800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-676900</v>
+        <v>-698400</v>
       </c>
       <c r="E35" s="3">
-        <v>-680700</v>
+        <v>-702300</v>
       </c>
       <c r="F35" s="3">
-        <v>-646300</v>
+        <v>-666800</v>
       </c>
       <c r="G35" s="3">
-        <v>-313900</v>
+        <v>-323800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5134100</v>
+        <v>5297100</v>
       </c>
       <c r="E41" s="3">
-        <v>4202300</v>
+        <v>4335800</v>
       </c>
       <c r="F41" s="3">
-        <v>271000</v>
+        <v>279600</v>
       </c>
       <c r="G41" s="3">
-        <v>332200</v>
+        <v>342800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>394500</v>
+        <v>407000</v>
       </c>
       <c r="E42" s="3">
-        <v>392600</v>
+        <v>405100</v>
       </c>
       <c r="F42" s="3">
-        <v>56800</v>
+        <v>58600</v>
       </c>
       <c r="G42" s="3">
-        <v>312700</v>
+        <v>322600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>578600</v>
+        <v>596900</v>
       </c>
       <c r="E43" s="3">
-        <v>251600</v>
+        <v>259600</v>
       </c>
       <c r="F43" s="3">
-        <v>184300</v>
+        <v>190100</v>
       </c>
       <c r="G43" s="3">
-        <v>151400</v>
+        <v>156200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>370500</v>
+        <v>382300</v>
       </c>
       <c r="E44" s="3">
-        <v>186900</v>
+        <v>192900</v>
       </c>
       <c r="F44" s="3">
-        <v>63200</v>
+        <v>65200</v>
       </c>
       <c r="G44" s="3">
-        <v>23600</v>
+        <v>24300</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>319600</v>
+        <v>329700</v>
       </c>
       <c r="E45" s="3">
-        <v>489800</v>
+        <v>505400</v>
       </c>
       <c r="F45" s="3">
-        <v>115200</v>
+        <v>118900</v>
       </c>
       <c r="G45" s="3">
-        <v>30500</v>
+        <v>31400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6797200</v>
+        <v>7013100</v>
       </c>
       <c r="E46" s="3">
-        <v>5523400</v>
+        <v>5698700</v>
       </c>
       <c r="F46" s="3">
-        <v>690500</v>
+        <v>712400</v>
       </c>
       <c r="G46" s="3">
-        <v>850400</v>
+        <v>877400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,13 +1851,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>922900</v>
+        <v>952200</v>
       </c>
       <c r="E47" s="3">
-        <v>55500</v>
+        <v>57200</v>
       </c>
       <c r="F47" s="3">
-        <v>15300</v>
+        <v>15800</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>972400</v>
+        <v>1003300</v>
       </c>
       <c r="E48" s="3">
-        <v>493100</v>
+        <v>508800</v>
       </c>
       <c r="F48" s="3">
-        <v>510900</v>
+        <v>527100</v>
       </c>
       <c r="G48" s="3">
-        <v>167800</v>
+        <v>173100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>205200</v>
+        <v>211700</v>
       </c>
       <c r="E49" s="3">
-        <v>119400</v>
+        <v>123200</v>
       </c>
       <c r="F49" s="3">
-        <v>51900</v>
+        <v>53600</v>
       </c>
       <c r="G49" s="3">
-        <v>43100</v>
+        <v>44400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>240900</v>
+        <v>248500</v>
       </c>
       <c r="E52" s="3">
-        <v>31800</v>
+        <v>32800</v>
       </c>
       <c r="F52" s="3">
-        <v>19100</v>
+        <v>19700</v>
       </c>
       <c r="G52" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9138700</v>
+        <v>9428800</v>
       </c>
       <c r="E54" s="3">
-        <v>6223200</v>
+        <v>6420800</v>
       </c>
       <c r="F54" s="3">
-        <v>1287800</v>
+        <v>1328700</v>
       </c>
       <c r="G54" s="3">
-        <v>1068100</v>
+        <v>1102000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1720800</v>
+        <v>1775500</v>
       </c>
       <c r="E57" s="3">
-        <v>711600</v>
+        <v>734100</v>
       </c>
       <c r="F57" s="3">
-        <v>132800</v>
+        <v>137000</v>
       </c>
       <c r="G57" s="3">
-        <v>29900</v>
+        <v>30900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2181,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>24100</v>
+        <v>24800</v>
       </c>
       <c r="F58" s="3">
-        <v>66800</v>
+        <v>68900</v>
       </c>
       <c r="G58" s="3">
-        <v>27800</v>
+        <v>28700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>786500</v>
+        <v>811500</v>
       </c>
       <c r="E59" s="3">
-        <v>355300</v>
+        <v>366600</v>
       </c>
       <c r="F59" s="3">
-        <v>259400</v>
+        <v>267700</v>
       </c>
       <c r="G59" s="3">
-        <v>77700</v>
+        <v>80200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2507400</v>
+        <v>2587000</v>
       </c>
       <c r="E60" s="3">
-        <v>1090900</v>
+        <v>1125600</v>
       </c>
       <c r="F60" s="3">
-        <v>459000</v>
+        <v>473600</v>
       </c>
       <c r="G60" s="3">
-        <v>135400</v>
+        <v>139700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>233200</v>
+        <v>240600</v>
       </c>
       <c r="E61" s="3">
-        <v>229000</v>
+        <v>236300</v>
       </c>
       <c r="F61" s="3">
-        <v>235200</v>
+        <v>242700</v>
       </c>
       <c r="G61" s="3">
-        <v>139200</v>
+        <v>143600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>293600</v>
+        <v>302900</v>
       </c>
       <c r="E62" s="3">
-        <v>110600</v>
+        <v>114100</v>
       </c>
       <c r="F62" s="3">
-        <v>195000</v>
+        <v>201200</v>
       </c>
       <c r="G62" s="3">
-        <v>126100</v>
+        <v>130100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3271900</v>
+        <v>3375700</v>
       </c>
       <c r="E66" s="3">
-        <v>1430600</v>
+        <v>1476000</v>
       </c>
       <c r="F66" s="3">
-        <v>889300</v>
+        <v>917500</v>
       </c>
       <c r="G66" s="3">
-        <v>400700</v>
+        <v>413500</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1349300</v>
+        <v>1392200</v>
       </c>
       <c r="G70" s="3">
-        <v>971500</v>
+        <v>1002400</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2253000</v>
+        <v>-2324600</v>
       </c>
       <c r="E72" s="3">
-        <v>-1576100</v>
+        <v>-1626100</v>
       </c>
       <c r="F72" s="3">
-        <v>-950000</v>
+        <v>-980100</v>
       </c>
       <c r="G72" s="3">
-        <v>-303800</v>
+        <v>-313400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5866800</v>
+        <v>6053100</v>
       </c>
       <c r="E76" s="3">
-        <v>4792600</v>
+        <v>4944800</v>
       </c>
       <c r="F76" s="3">
-        <v>-950800</v>
+        <v>-981000</v>
       </c>
       <c r="G76" s="3">
-        <v>-304100</v>
+        <v>-313900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-676900</v>
+        <v>-698400</v>
       </c>
       <c r="E81" s="3">
-        <v>-680700</v>
+        <v>-702300</v>
       </c>
       <c r="F81" s="3">
-        <v>-646300</v>
+        <v>-666800</v>
       </c>
       <c r="G81" s="3">
-        <v>-313900</v>
+        <v>-323800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>84700</v>
+        <v>87400</v>
       </c>
       <c r="E83" s="3">
-        <v>45700</v>
+        <v>47200</v>
       </c>
       <c r="F83" s="3">
-        <v>19300</v>
+        <v>19900</v>
       </c>
       <c r="G83" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-152400</v>
+        <v>-157200</v>
       </c>
       <c r="E89" s="3">
-        <v>-19500</v>
+        <v>-20100</v>
       </c>
       <c r="F89" s="3">
-        <v>-495900</v>
+        <v>-511700</v>
       </c>
       <c r="G89" s="3">
-        <v>-218900</v>
+        <v>-225900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-320100</v>
+        <v>-330300</v>
       </c>
       <c r="E91" s="3">
-        <v>-112200</v>
+        <v>-115800</v>
       </c>
       <c r="F91" s="3">
-        <v>-255000</v>
+        <v>-263100</v>
       </c>
       <c r="G91" s="3">
-        <v>-107200</v>
+        <v>-110600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4604200</v>
+        <v>-4750400</v>
       </c>
       <c r="E94" s="3">
-        <v>-613300</v>
+        <v>-632800</v>
       </c>
       <c r="F94" s="3">
-        <v>103000</v>
+        <v>106300</v>
       </c>
       <c r="G94" s="3">
-        <v>-505300</v>
+        <v>-521400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2036100</v>
+        <v>2100700</v>
       </c>
       <c r="E100" s="3">
-        <v>4778700</v>
+        <v>4930400</v>
       </c>
       <c r="F100" s="3">
-        <v>500200</v>
+        <v>516100</v>
       </c>
       <c r="G100" s="3">
-        <v>937400</v>
+        <v>967200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,10 +3464,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-50600</v>
+        <v>-52200</v>
       </c>
       <c r="E101" s="3">
-        <v>-90500</v>
+        <v>-93400</v>
       </c>
       <c r="F101" s="3">
         <v>700</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2771000</v>
+        <v>-2859000</v>
       </c>
       <c r="E102" s="3">
-        <v>4055400</v>
+        <v>4184200</v>
       </c>
       <c r="F102" s="3">
-        <v>108000</v>
+        <v>111500</v>
       </c>
       <c r="G102" s="3">
-        <v>211100</v>
+        <v>217800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>XPEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,27 +711,30 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3014300</v>
+        <v>3817500</v>
       </c>
       <c r="E8" s="3">
-        <v>839400</v>
+        <v>2983500</v>
       </c>
       <c r="F8" s="3">
-        <v>333400</v>
+        <v>830800</v>
       </c>
       <c r="G8" s="3">
+        <v>330000</v>
+      </c>
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -744,27 +747,30 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2609400</v>
+        <v>3378400</v>
       </c>
       <c r="E9" s="3">
-        <v>778800</v>
+        <v>2582700</v>
       </c>
       <c r="F9" s="3">
-        <v>386400</v>
+        <v>770800</v>
       </c>
       <c r="G9" s="3">
+        <v>382500</v>
+      </c>
+      <c r="H9" s="3">
         <v>1700</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -777,27 +783,30 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>404900</v>
+        <v>439000</v>
       </c>
       <c r="E10" s="3">
-        <v>60600</v>
+        <v>400800</v>
       </c>
       <c r="F10" s="3">
-        <v>-53100</v>
+        <v>60000</v>
       </c>
       <c r="G10" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="H10" s="3">
         <v>-300</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,25 +838,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>590900</v>
+        <v>741300</v>
       </c>
       <c r="E12" s="3">
-        <v>247900</v>
+        <v>584800</v>
       </c>
       <c r="F12" s="3">
-        <v>297300</v>
+        <v>245300</v>
       </c>
       <c r="G12" s="3">
-        <v>151000</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>294300</v>
+      </c>
+      <c r="H12" s="3">
+        <v>149400</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,26 +907,29 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>28300</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>22400</v>
+        <v>28000</v>
       </c>
       <c r="F14" s="3">
-        <v>27100</v>
+        <v>22200</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>26800</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -924,9 +943,12 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,25 +995,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3959200</v>
+        <v>5054900</v>
       </c>
       <c r="E17" s="3">
-        <v>1456000</v>
+        <v>3918700</v>
       </c>
       <c r="F17" s="3">
-        <v>876300</v>
+        <v>1441100</v>
       </c>
       <c r="G17" s="3">
-        <v>244800</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>867400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>242300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1002,26 +1028,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-944900</v>
+        <v>-1237500</v>
       </c>
       <c r="E18" s="3">
-        <v>-616700</v>
+        <v>-935300</v>
       </c>
       <c r="F18" s="3">
-        <v>-543000</v>
+        <v>-610400</v>
       </c>
       <c r="G18" s="3">
-        <v>-243400</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-537400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-240900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,25 +1083,26 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>258200</v>
+        <v>-39900</v>
       </c>
       <c r="E20" s="3">
-        <v>227700</v>
+        <v>255500</v>
       </c>
       <c r="F20" s="3">
-        <v>17400</v>
+        <v>225400</v>
       </c>
       <c r="G20" s="3">
-        <v>43300</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>17200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>42900</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1083,26 +1116,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-599200</v>
+        <v>-1130000</v>
       </c>
       <c r="E21" s="3">
-        <v>-341700</v>
+        <v>-592700</v>
       </c>
       <c r="F21" s="3">
-        <v>-505700</v>
+        <v>-338000</v>
       </c>
       <c r="G21" s="3">
-        <v>-191300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-500400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-189300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1116,27 +1152,30 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E22" s="3">
         <v>7900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1149,26 +1188,29 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-694700</v>
+        <v>-1296200</v>
       </c>
       <c r="E23" s="3">
-        <v>-392200</v>
+        <v>-687600</v>
       </c>
       <c r="F23" s="3">
-        <v>-530200</v>
+        <v>-388200</v>
       </c>
       <c r="G23" s="3">
-        <v>-200900</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-524800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-198800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1182,26 +1224,29 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="3">
         <v>3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,26 +1296,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-698400</v>
+        <v>-1299700</v>
       </c>
       <c r="E26" s="3">
-        <v>-392400</v>
+        <v>-691300</v>
       </c>
       <c r="F26" s="3">
-        <v>-530200</v>
+        <v>-388400</v>
       </c>
       <c r="G26" s="3">
-        <v>-200900</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-524800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-198800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1281,26 +1332,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-698400</v>
+        <v>-1299100</v>
       </c>
       <c r="E27" s="3">
-        <v>-702300</v>
+        <v>-691300</v>
       </c>
       <c r="F27" s="3">
-        <v>-666800</v>
+        <v>-695100</v>
       </c>
       <c r="G27" s="3">
-        <v>-323800</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-660000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-320500</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,26 +1512,29 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-258200</v>
+        <v>39900</v>
       </c>
       <c r="E32" s="3">
-        <v>-227700</v>
+        <v>-255500</v>
       </c>
       <c r="F32" s="3">
-        <v>-17400</v>
+        <v>-225400</v>
       </c>
       <c r="G32" s="3">
-        <v>-43300</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>-17200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-42900</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1479,26 +1548,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-698400</v>
+        <v>-1299100</v>
       </c>
       <c r="E33" s="3">
-        <v>-702300</v>
+        <v>-691300</v>
       </c>
       <c r="F33" s="3">
-        <v>-666800</v>
+        <v>-695100</v>
       </c>
       <c r="G33" s="3">
-        <v>-323800</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-660000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-320500</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,26 +1620,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-698400</v>
+        <v>-1299100</v>
       </c>
       <c r="E35" s="3">
-        <v>-702300</v>
+        <v>-691300</v>
       </c>
       <c r="F35" s="3">
-        <v>-666800</v>
+        <v>-695100</v>
       </c>
       <c r="G35" s="3">
-        <v>-323800</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-660000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-320500</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5297100</v>
+        <v>4197600</v>
       </c>
       <c r="E41" s="3">
-        <v>4335800</v>
+        <v>5242900</v>
       </c>
       <c r="F41" s="3">
-        <v>279600</v>
+        <v>4291400</v>
       </c>
       <c r="G41" s="3">
-        <v>342800</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>276800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>339300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,26 +1765,29 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>407000</v>
+        <v>179400</v>
       </c>
       <c r="E42" s="3">
-        <v>405100</v>
+        <v>402800</v>
       </c>
       <c r="F42" s="3">
-        <v>58600</v>
+        <v>401000</v>
       </c>
       <c r="G42" s="3">
-        <v>322600</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>58000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>319300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1712,26 +1801,29 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>596900</v>
+        <v>741300</v>
       </c>
       <c r="E43" s="3">
-        <v>259600</v>
+        <v>590800</v>
       </c>
       <c r="F43" s="3">
-        <v>190100</v>
+        <v>256900</v>
       </c>
       <c r="G43" s="3">
-        <v>156200</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>188200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>154600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1745,26 +1837,29 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>382300</v>
+        <v>642700</v>
       </c>
       <c r="E44" s="3">
-        <v>192900</v>
+        <v>378400</v>
       </c>
       <c r="F44" s="3">
-        <v>65200</v>
+        <v>190900</v>
       </c>
       <c r="G44" s="3">
-        <v>24300</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>64600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>24100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1778,26 +1873,29 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>329700</v>
+        <v>426400</v>
       </c>
       <c r="E45" s="3">
-        <v>505400</v>
+        <v>326300</v>
       </c>
       <c r="F45" s="3">
-        <v>118900</v>
+        <v>500200</v>
       </c>
       <c r="G45" s="3">
-        <v>31400</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>117700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>31100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1811,26 +1909,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7013100</v>
+        <v>6187400</v>
       </c>
       <c r="E46" s="3">
-        <v>5698700</v>
+        <v>6941300</v>
       </c>
       <c r="F46" s="3">
-        <v>712400</v>
+        <v>5640400</v>
       </c>
       <c r="G46" s="3">
-        <v>877400</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>705200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>868400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1844,26 +1945,29 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>952200</v>
+        <v>1621900</v>
       </c>
       <c r="E47" s="3">
-        <v>57200</v>
+        <v>942400</v>
       </c>
       <c r="F47" s="3">
-        <v>15800</v>
+        <v>56600</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>15600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1877,26 +1981,29 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1003300</v>
+        <v>1785600</v>
       </c>
       <c r="E48" s="3">
-        <v>508800</v>
+        <v>993100</v>
       </c>
       <c r="F48" s="3">
-        <v>527100</v>
+        <v>503600</v>
       </c>
       <c r="G48" s="3">
-        <v>173100</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>521700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>171400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1910,26 +2017,29 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>211700</v>
+        <v>538900</v>
       </c>
       <c r="E49" s="3">
-        <v>123200</v>
+        <v>209600</v>
       </c>
       <c r="F49" s="3">
-        <v>53600</v>
+        <v>121900</v>
       </c>
       <c r="G49" s="3">
-        <v>44400</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>53000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>44000</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,26 +2125,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>248500</v>
+        <v>28600</v>
       </c>
       <c r="E52" s="3">
-        <v>32800</v>
+        <v>246000</v>
       </c>
       <c r="F52" s="3">
-        <v>19700</v>
+        <v>32500</v>
       </c>
       <c r="G52" s="3">
-        <v>7100</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>19500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>7000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,26 +2197,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9428800</v>
+        <v>10162400</v>
       </c>
       <c r="E54" s="3">
-        <v>6420800</v>
+        <v>9332300</v>
       </c>
       <c r="F54" s="3">
-        <v>1328700</v>
+        <v>6355100</v>
       </c>
       <c r="G54" s="3">
-        <v>1102000</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>1315100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1090700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,25 +2268,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1775500</v>
+        <v>2021800</v>
       </c>
       <c r="E57" s="3">
-        <v>734100</v>
+        <v>1757300</v>
       </c>
       <c r="F57" s="3">
-        <v>137000</v>
+        <v>726600</v>
       </c>
       <c r="G57" s="3">
-        <v>30900</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>135600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>30500</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2171,26 +2301,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>470400</v>
       </c>
       <c r="E58" s="3">
-        <v>24800</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>68900</v>
+        <v>24600</v>
       </c>
       <c r="G58" s="3">
-        <v>28700</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>68200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>28400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2204,26 +2337,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>811500</v>
+        <v>935700</v>
       </c>
       <c r="E59" s="3">
-        <v>366600</v>
+        <v>803200</v>
       </c>
       <c r="F59" s="3">
-        <v>267700</v>
+        <v>362900</v>
       </c>
       <c r="G59" s="3">
-        <v>80200</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>264900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>79300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,26 +2373,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2587000</v>
+        <v>3427900</v>
       </c>
       <c r="E60" s="3">
-        <v>1125600</v>
+        <v>2560500</v>
       </c>
       <c r="F60" s="3">
-        <v>473600</v>
+        <v>1114100</v>
       </c>
       <c r="G60" s="3">
-        <v>139700</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>468800</v>
+      </c>
+      <c r="H60" s="3">
+        <v>138300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2270,26 +2409,29 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>240600</v>
+        <v>769100</v>
       </c>
       <c r="E61" s="3">
-        <v>236300</v>
+        <v>238100</v>
       </c>
       <c r="F61" s="3">
-        <v>242700</v>
+        <v>233800</v>
       </c>
       <c r="G61" s="3">
-        <v>143600</v>
+        <v>240200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>142200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2303,26 +2445,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>302900</v>
+        <v>718500</v>
       </c>
       <c r="E62" s="3">
-        <v>114100</v>
+        <v>299800</v>
       </c>
       <c r="F62" s="3">
-        <v>201200</v>
+        <v>113000</v>
       </c>
       <c r="G62" s="3">
-        <v>130100</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>199100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>128800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,26 +2589,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3375700</v>
+        <v>4915600</v>
       </c>
       <c r="E66" s="3">
-        <v>1476000</v>
+        <v>3341200</v>
       </c>
       <c r="F66" s="3">
-        <v>917500</v>
+        <v>1460900</v>
       </c>
       <c r="G66" s="3">
-        <v>413500</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>908100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>409200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2562,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1392200</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1002400</v>
+        <v>1377900</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>992100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,26 +2785,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2324600</v>
+        <v>-3599900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1626100</v>
+        <v>-2300800</v>
       </c>
       <c r="F72" s="3">
-        <v>-980100</v>
+        <v>-1609500</v>
       </c>
       <c r="G72" s="3">
-        <v>-313400</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-970100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-310200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,26 +2929,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6053100</v>
+        <v>5246900</v>
       </c>
       <c r="E76" s="3">
-        <v>4944800</v>
+        <v>5991100</v>
       </c>
       <c r="F76" s="3">
-        <v>-981000</v>
+        <v>4894200</v>
       </c>
       <c r="G76" s="3">
-        <v>-313900</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-970900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-310600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,26 +3042,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-698400</v>
+        <v>-1299100</v>
       </c>
       <c r="E81" s="3">
-        <v>-702300</v>
+        <v>-691300</v>
       </c>
       <c r="F81" s="3">
-        <v>-666800</v>
+        <v>-695100</v>
       </c>
       <c r="G81" s="3">
-        <v>-323800</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-660000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-320500</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,25 +3097,26 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>87400</v>
+        <v>146600</v>
       </c>
       <c r="E83" s="3">
-        <v>47200</v>
+        <v>86500</v>
       </c>
       <c r="F83" s="3">
-        <v>19900</v>
+        <v>46700</v>
       </c>
       <c r="G83" s="3">
-        <v>8800</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>19700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>8700</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,26 +3310,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-157200</v>
+        <v>-1170200</v>
       </c>
       <c r="E89" s="3">
-        <v>-20100</v>
+        <v>-155600</v>
       </c>
       <c r="F89" s="3">
-        <v>-511700</v>
+        <v>-19900</v>
       </c>
       <c r="G89" s="3">
-        <v>-225900</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-506400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-223600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,25 +3365,26 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-330300</v>
+        <v>-607800</v>
       </c>
       <c r="E91" s="3">
-        <v>-115800</v>
+        <v>-326900</v>
       </c>
       <c r="F91" s="3">
-        <v>-263100</v>
+        <v>-114600</v>
       </c>
       <c r="G91" s="3">
-        <v>-110600</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-260400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-109500</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,26 +3470,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4750400</v>
+        <v>688900</v>
       </c>
       <c r="E94" s="3">
-        <v>-632800</v>
+        <v>-4701700</v>
       </c>
       <c r="F94" s="3">
-        <v>106300</v>
+        <v>-626300</v>
       </c>
       <c r="G94" s="3">
-        <v>-521400</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>105200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-516100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,26 +3666,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2100700</v>
+        <v>853400</v>
       </c>
       <c r="E100" s="3">
-        <v>4930400</v>
+        <v>2079200</v>
       </c>
       <c r="F100" s="3">
-        <v>516100</v>
+        <v>4880000</v>
       </c>
       <c r="G100" s="3">
-        <v>967200</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>510800</v>
+      </c>
+      <c r="H100" s="3">
+        <v>957300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3457,27 +3702,30 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-52200</v>
+        <v>65600</v>
       </c>
       <c r="E101" s="3">
-        <v>-93400</v>
+        <v>-51600</v>
       </c>
       <c r="F101" s="3">
+        <v>-92400</v>
+      </c>
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3490,26 +3738,29 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2859000</v>
+        <v>437700</v>
       </c>
       <c r="E102" s="3">
-        <v>4184200</v>
+        <v>-2829700</v>
       </c>
       <c r="F102" s="3">
-        <v>111500</v>
+        <v>4141400</v>
       </c>
       <c r="G102" s="3">
-        <v>217800</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>110300</v>
+      </c>
+      <c r="H102" s="3">
+        <v>215600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>XPEV</t>
   </si>
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3817500</v>
+        <v>3700100</v>
       </c>
       <c r="E8" s="3">
-        <v>2983500</v>
+        <v>2891700</v>
       </c>
       <c r="F8" s="3">
-        <v>830800</v>
+        <v>805200</v>
       </c>
       <c r="G8" s="3">
-        <v>330000</v>
+        <v>319800</v>
       </c>
       <c r="H8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,16 +757,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3378400</v>
+        <v>3253100</v>
       </c>
       <c r="E9" s="3">
-        <v>2582700</v>
+        <v>2503300</v>
       </c>
       <c r="F9" s="3">
-        <v>770800</v>
+        <v>747100</v>
       </c>
       <c r="G9" s="3">
-        <v>382500</v>
+        <v>370700</v>
       </c>
       <c r="H9" s="3">
         <v>1700</v>
@@ -793,16 +793,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>439000</v>
+        <v>447000</v>
       </c>
       <c r="E10" s="3">
-        <v>400800</v>
+        <v>388500</v>
       </c>
       <c r="F10" s="3">
-        <v>60000</v>
+        <v>58100</v>
       </c>
       <c r="G10" s="3">
-        <v>-52500</v>
+        <v>-50900</v>
       </c>
       <c r="H10" s="3">
         <v>-300</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>741300</v>
+        <v>718500</v>
       </c>
       <c r="E12" s="3">
-        <v>584800</v>
+        <v>566900</v>
       </c>
       <c r="F12" s="3">
-        <v>245300</v>
+        <v>237800</v>
       </c>
       <c r="G12" s="3">
-        <v>294300</v>
+        <v>285200</v>
       </c>
       <c r="H12" s="3">
-        <v>149400</v>
+        <v>144800</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -916,17 +916,17 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>21500</v>
       </c>
       <c r="E14" s="3">
-        <v>28000</v>
+        <v>27100</v>
       </c>
       <c r="F14" s="3">
-        <v>22200</v>
+        <v>21500</v>
       </c>
       <c r="G14" s="3">
-        <v>26800</v>
+        <v>26000</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5054900</v>
+        <v>4899500</v>
       </c>
       <c r="E17" s="3">
-        <v>3918700</v>
+        <v>3798300</v>
       </c>
       <c r="F17" s="3">
-        <v>1441100</v>
+        <v>1396800</v>
       </c>
       <c r="G17" s="3">
-        <v>867400</v>
+        <v>840700</v>
       </c>
       <c r="H17" s="3">
-        <v>242300</v>
+        <v>234800</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1237500</v>
+        <v>-1199400</v>
       </c>
       <c r="E18" s="3">
-        <v>-935300</v>
+        <v>-906500</v>
       </c>
       <c r="F18" s="3">
-        <v>-610400</v>
+        <v>-591600</v>
       </c>
       <c r="G18" s="3">
-        <v>-537400</v>
+        <v>-520900</v>
       </c>
       <c r="H18" s="3">
-        <v>-240900</v>
+        <v>-233500</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-39900</v>
+        <v>-38700</v>
       </c>
       <c r="E20" s="3">
-        <v>255500</v>
+        <v>247700</v>
       </c>
       <c r="F20" s="3">
-        <v>225400</v>
+        <v>218400</v>
       </c>
       <c r="G20" s="3">
-        <v>17200</v>
+        <v>16700</v>
       </c>
       <c r="H20" s="3">
-        <v>42900</v>
+        <v>41600</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1130000</v>
+        <v>-1096000</v>
       </c>
       <c r="E21" s="3">
-        <v>-592700</v>
+        <v>-575000</v>
       </c>
       <c r="F21" s="3">
-        <v>-338000</v>
+        <v>-327900</v>
       </c>
       <c r="G21" s="3">
-        <v>-500400</v>
+        <v>-485200</v>
       </c>
       <c r="H21" s="3">
-        <v>-189300</v>
+        <v>-183500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,16 +1162,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18800</v>
+        <v>18200</v>
       </c>
       <c r="E22" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="F22" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G22" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="H22" s="3">
         <v>800</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1296200</v>
+        <v>-1256300</v>
       </c>
       <c r="E23" s="3">
-        <v>-687600</v>
+        <v>-666500</v>
       </c>
       <c r="F23" s="3">
-        <v>-388200</v>
+        <v>-376200</v>
       </c>
       <c r="G23" s="3">
-        <v>-524800</v>
+        <v>-508600</v>
       </c>
       <c r="H23" s="3">
-        <v>-198800</v>
+        <v>-192700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,10 +1234,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E24" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1299700</v>
+        <v>-1259700</v>
       </c>
       <c r="E26" s="3">
-        <v>-691300</v>
+        <v>-670000</v>
       </c>
       <c r="F26" s="3">
-        <v>-388400</v>
+        <v>-376400</v>
       </c>
       <c r="G26" s="3">
-        <v>-524800</v>
+        <v>-508600</v>
       </c>
       <c r="H26" s="3">
-        <v>-198800</v>
+        <v>-192700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1299100</v>
+        <v>-1259200</v>
       </c>
       <c r="E27" s="3">
-        <v>-691300</v>
+        <v>-670000</v>
       </c>
       <c r="F27" s="3">
-        <v>-695100</v>
+        <v>-673700</v>
       </c>
       <c r="G27" s="3">
-        <v>-660000</v>
+        <v>-639700</v>
       </c>
       <c r="H27" s="3">
-        <v>-320500</v>
+        <v>-310700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>39900</v>
+        <v>38700</v>
       </c>
       <c r="E32" s="3">
-        <v>-255500</v>
+        <v>-247700</v>
       </c>
       <c r="F32" s="3">
-        <v>-225400</v>
+        <v>-218400</v>
       </c>
       <c r="G32" s="3">
-        <v>-17200</v>
+        <v>-16700</v>
       </c>
       <c r="H32" s="3">
-        <v>-42900</v>
+        <v>-41600</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1299100</v>
+        <v>-1259200</v>
       </c>
       <c r="E33" s="3">
-        <v>-691300</v>
+        <v>-670000</v>
       </c>
       <c r="F33" s="3">
-        <v>-695100</v>
+        <v>-673700</v>
       </c>
       <c r="G33" s="3">
-        <v>-660000</v>
+        <v>-639700</v>
       </c>
       <c r="H33" s="3">
-        <v>-320500</v>
+        <v>-310700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1299100</v>
+        <v>-1259200</v>
       </c>
       <c r="E35" s="3">
-        <v>-691300</v>
+        <v>-670000</v>
       </c>
       <c r="F35" s="3">
-        <v>-695100</v>
+        <v>-673700</v>
       </c>
       <c r="G35" s="3">
-        <v>-660000</v>
+        <v>-639700</v>
       </c>
       <c r="H35" s="3">
-        <v>-320500</v>
+        <v>-310700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4197600</v>
+        <v>4068600</v>
       </c>
       <c r="E41" s="3">
-        <v>5242900</v>
+        <v>5081700</v>
       </c>
       <c r="F41" s="3">
-        <v>4291400</v>
+        <v>4159500</v>
       </c>
       <c r="G41" s="3">
-        <v>276800</v>
+        <v>268200</v>
       </c>
       <c r="H41" s="3">
-        <v>339300</v>
+        <v>328900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>179400</v>
+        <v>173900</v>
       </c>
       <c r="E42" s="3">
-        <v>402800</v>
+        <v>390400</v>
       </c>
       <c r="F42" s="3">
-        <v>401000</v>
+        <v>388600</v>
       </c>
       <c r="G42" s="3">
-        <v>58000</v>
+        <v>56200</v>
       </c>
       <c r="H42" s="3">
-        <v>319300</v>
+        <v>309500</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>741300</v>
+        <v>911100</v>
       </c>
       <c r="E43" s="3">
-        <v>590800</v>
+        <v>572700</v>
       </c>
       <c r="F43" s="3">
-        <v>256900</v>
+        <v>249000</v>
       </c>
       <c r="G43" s="3">
-        <v>188200</v>
+        <v>182400</v>
       </c>
       <c r="H43" s="3">
-        <v>154600</v>
+        <v>149900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,19 +1847,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>642700</v>
+        <v>623000</v>
       </c>
       <c r="E44" s="3">
-        <v>378400</v>
+        <v>366800</v>
       </c>
       <c r="F44" s="3">
-        <v>190900</v>
+        <v>185000</v>
       </c>
       <c r="G44" s="3">
-        <v>64600</v>
+        <v>62600</v>
       </c>
       <c r="H44" s="3">
-        <v>24100</v>
+        <v>23300</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>426400</v>
+        <v>220700</v>
       </c>
       <c r="E45" s="3">
-        <v>326300</v>
+        <v>316300</v>
       </c>
       <c r="F45" s="3">
-        <v>500200</v>
+        <v>484800</v>
       </c>
       <c r="G45" s="3">
-        <v>117700</v>
+        <v>114100</v>
       </c>
       <c r="H45" s="3">
-        <v>31100</v>
+        <v>30200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6187400</v>
+        <v>5997200</v>
       </c>
       <c r="E46" s="3">
-        <v>6941300</v>
+        <v>6727900</v>
       </c>
       <c r="F46" s="3">
-        <v>5640400</v>
+        <v>5467000</v>
       </c>
       <c r="G46" s="3">
-        <v>705200</v>
+        <v>683500</v>
       </c>
       <c r="H46" s="3">
-        <v>868400</v>
+        <v>841700</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,16 +1955,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1621900</v>
+        <v>1572100</v>
       </c>
       <c r="E47" s="3">
-        <v>942400</v>
+        <v>913500</v>
       </c>
       <c r="F47" s="3">
-        <v>56600</v>
+        <v>54900</v>
       </c>
       <c r="G47" s="3">
-        <v>15600</v>
+        <v>15200</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1785600</v>
+        <v>1730700</v>
       </c>
       <c r="E48" s="3">
-        <v>993100</v>
+        <v>962500</v>
       </c>
       <c r="F48" s="3">
-        <v>503600</v>
+        <v>488100</v>
       </c>
       <c r="G48" s="3">
-        <v>521700</v>
+        <v>505700</v>
       </c>
       <c r="H48" s="3">
-        <v>171400</v>
+        <v>166100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>538900</v>
+        <v>522300</v>
       </c>
       <c r="E49" s="3">
-        <v>209600</v>
+        <v>203100</v>
       </c>
       <c r="F49" s="3">
-        <v>121900</v>
+        <v>118200</v>
       </c>
       <c r="G49" s="3">
-        <v>53000</v>
+        <v>51400</v>
       </c>
       <c r="H49" s="3">
-        <v>44000</v>
+        <v>42600</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28600</v>
+        <v>27700</v>
       </c>
       <c r="E52" s="3">
-        <v>246000</v>
+        <v>238400</v>
       </c>
       <c r="F52" s="3">
-        <v>32500</v>
+        <v>31500</v>
       </c>
       <c r="G52" s="3">
-        <v>19500</v>
+        <v>18900</v>
       </c>
       <c r="H52" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10162400</v>
+        <v>9850000</v>
       </c>
       <c r="E54" s="3">
-        <v>9332300</v>
+        <v>9045400</v>
       </c>
       <c r="F54" s="3">
-        <v>6355100</v>
+        <v>6159700</v>
       </c>
       <c r="G54" s="3">
-        <v>1315100</v>
+        <v>1274700</v>
       </c>
       <c r="H54" s="3">
-        <v>1090700</v>
+        <v>1057200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2021800</v>
+        <v>1959600</v>
       </c>
       <c r="E57" s="3">
-        <v>1757300</v>
+        <v>1703300</v>
       </c>
       <c r="F57" s="3">
-        <v>726600</v>
+        <v>704300</v>
       </c>
       <c r="G57" s="3">
-        <v>135600</v>
+        <v>131400</v>
       </c>
       <c r="H57" s="3">
-        <v>30500</v>
+        <v>29600</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>470400</v>
+        <v>456000</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>24600</v>
+        <v>23800</v>
       </c>
       <c r="G58" s="3">
-        <v>68200</v>
+        <v>66100</v>
       </c>
       <c r="H58" s="3">
-        <v>28400</v>
+        <v>27600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>935700</v>
+        <v>907000</v>
       </c>
       <c r="E59" s="3">
-        <v>803200</v>
+        <v>778500</v>
       </c>
       <c r="F59" s="3">
-        <v>362900</v>
+        <v>351700</v>
       </c>
       <c r="G59" s="3">
-        <v>264900</v>
+        <v>256800</v>
       </c>
       <c r="H59" s="3">
-        <v>79300</v>
+        <v>76900</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3427900</v>
+        <v>3322500</v>
       </c>
       <c r="E60" s="3">
-        <v>2560500</v>
+        <v>2481800</v>
       </c>
       <c r="F60" s="3">
-        <v>1114100</v>
+        <v>1079800</v>
       </c>
       <c r="G60" s="3">
-        <v>468800</v>
+        <v>454400</v>
       </c>
       <c r="H60" s="3">
-        <v>138300</v>
+        <v>134100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>769100</v>
+        <v>745500</v>
       </c>
       <c r="E61" s="3">
-        <v>238100</v>
+        <v>230800</v>
       </c>
       <c r="F61" s="3">
-        <v>233800</v>
+        <v>226600</v>
       </c>
       <c r="G61" s="3">
-        <v>240200</v>
+        <v>232800</v>
       </c>
       <c r="H61" s="3">
-        <v>142200</v>
+        <v>137800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>718500</v>
+        <v>453500</v>
       </c>
       <c r="E62" s="3">
-        <v>299800</v>
+        <v>290600</v>
       </c>
       <c r="F62" s="3">
-        <v>113000</v>
+        <v>109500</v>
       </c>
       <c r="G62" s="3">
-        <v>199100</v>
+        <v>193000</v>
       </c>
       <c r="H62" s="3">
-        <v>128800</v>
+        <v>124800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4915600</v>
+        <v>4764500</v>
       </c>
       <c r="E66" s="3">
-        <v>3341200</v>
+        <v>3238500</v>
       </c>
       <c r="F66" s="3">
-        <v>1460900</v>
+        <v>1416000</v>
       </c>
       <c r="G66" s="3">
-        <v>908100</v>
+        <v>880200</v>
       </c>
       <c r="H66" s="3">
-        <v>409200</v>
+        <v>396700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1377900</v>
+        <v>1335600</v>
       </c>
       <c r="H70" s="3">
-        <v>992100</v>
+        <v>961600</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3599900</v>
+        <v>-3489200</v>
       </c>
       <c r="E72" s="3">
-        <v>-2300800</v>
+        <v>-2230000</v>
       </c>
       <c r="F72" s="3">
-        <v>-1609500</v>
+        <v>-1560000</v>
       </c>
       <c r="G72" s="3">
-        <v>-970100</v>
+        <v>-940300</v>
       </c>
       <c r="H72" s="3">
-        <v>-310200</v>
+        <v>-300700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5246900</v>
+        <v>5085600</v>
       </c>
       <c r="E76" s="3">
-        <v>5991100</v>
+        <v>5807000</v>
       </c>
       <c r="F76" s="3">
-        <v>4894200</v>
+        <v>4743700</v>
       </c>
       <c r="G76" s="3">
-        <v>-970900</v>
+        <v>-941100</v>
       </c>
       <c r="H76" s="3">
-        <v>-310600</v>
+        <v>-301000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1299100</v>
+        <v>-1259200</v>
       </c>
       <c r="E81" s="3">
-        <v>-691300</v>
+        <v>-670000</v>
       </c>
       <c r="F81" s="3">
-        <v>-695100</v>
+        <v>-673700</v>
       </c>
       <c r="G81" s="3">
-        <v>-660000</v>
+        <v>-639700</v>
       </c>
       <c r="H81" s="3">
-        <v>-320500</v>
+        <v>-310700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>146600</v>
+        <v>142100</v>
       </c>
       <c r="E83" s="3">
-        <v>86500</v>
+        <v>83900</v>
       </c>
       <c r="F83" s="3">
-        <v>46700</v>
+        <v>45300</v>
       </c>
       <c r="G83" s="3">
-        <v>19700</v>
+        <v>19100</v>
       </c>
       <c r="H83" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1170200</v>
+        <v>-1134300</v>
       </c>
       <c r="E89" s="3">
-        <v>-155600</v>
+        <v>-150800</v>
       </c>
       <c r="F89" s="3">
-        <v>-19900</v>
+        <v>-19300</v>
       </c>
       <c r="G89" s="3">
-        <v>-506400</v>
+        <v>-490900</v>
       </c>
       <c r="H89" s="3">
-        <v>-223600</v>
+        <v>-216700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-607800</v>
+        <v>-589100</v>
       </c>
       <c r="E91" s="3">
-        <v>-326900</v>
+        <v>-316900</v>
       </c>
       <c r="F91" s="3">
-        <v>-114600</v>
+        <v>-111100</v>
       </c>
       <c r="G91" s="3">
-        <v>-260400</v>
+        <v>-252400</v>
       </c>
       <c r="H91" s="3">
-        <v>-109500</v>
+        <v>-106100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>688900</v>
+        <v>667700</v>
       </c>
       <c r="E94" s="3">
-        <v>-4701700</v>
+        <v>-4557200</v>
       </c>
       <c r="F94" s="3">
-        <v>-626300</v>
+        <v>-607100</v>
       </c>
       <c r="G94" s="3">
-        <v>105200</v>
+        <v>102000</v>
       </c>
       <c r="H94" s="3">
-        <v>-516100</v>
+        <v>-500200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>853400</v>
+        <v>827200</v>
       </c>
       <c r="E100" s="3">
-        <v>2079200</v>
+        <v>2015300</v>
       </c>
       <c r="F100" s="3">
-        <v>4880000</v>
+        <v>4730000</v>
       </c>
       <c r="G100" s="3">
-        <v>510800</v>
+        <v>495100</v>
       </c>
       <c r="H100" s="3">
-        <v>957300</v>
+        <v>927800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,19 +3712,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>65600</v>
+        <v>63600</v>
       </c>
       <c r="E101" s="3">
-        <v>-51600</v>
+        <v>-50100</v>
       </c>
       <c r="F101" s="3">
-        <v>-92400</v>
+        <v>-89600</v>
       </c>
       <c r="G101" s="3">
         <v>700</v>
       </c>
       <c r="H101" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>437700</v>
+        <v>424200</v>
       </c>
       <c r="E102" s="3">
-        <v>-2829700</v>
+        <v>-2742700</v>
       </c>
       <c r="F102" s="3">
-        <v>4141400</v>
+        <v>4014100</v>
       </c>
       <c r="G102" s="3">
-        <v>110300</v>
+        <v>106900</v>
       </c>
       <c r="H102" s="3">
-        <v>215600</v>
+        <v>208900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XPEV_YR_FIN.xlsx
@@ -721,16 +721,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3700100</v>
+        <v>3708200</v>
       </c>
       <c r="E8" s="3">
-        <v>2891700</v>
+        <v>2898000</v>
       </c>
       <c r="F8" s="3">
-        <v>805200</v>
+        <v>807000</v>
       </c>
       <c r="G8" s="3">
-        <v>319800</v>
+        <v>320500</v>
       </c>
       <c r="H8" s="3">
         <v>1300</v>
@@ -757,16 +757,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3253100</v>
+        <v>3260200</v>
       </c>
       <c r="E9" s="3">
-        <v>2503300</v>
+        <v>2508700</v>
       </c>
       <c r="F9" s="3">
-        <v>747100</v>
+        <v>748700</v>
       </c>
       <c r="G9" s="3">
-        <v>370700</v>
+        <v>371500</v>
       </c>
       <c r="H9" s="3">
         <v>1700</v>
@@ -793,16 +793,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>447000</v>
+        <v>448000</v>
       </c>
       <c r="E10" s="3">
-        <v>388500</v>
+        <v>389300</v>
       </c>
       <c r="F10" s="3">
-        <v>58100</v>
+        <v>58200</v>
       </c>
       <c r="G10" s="3">
-        <v>-50900</v>
+        <v>-51000</v>
       </c>
       <c r="H10" s="3">
         <v>-300</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>718500</v>
+        <v>720100</v>
       </c>
       <c r="E12" s="3">
-        <v>566900</v>
+        <v>568100</v>
       </c>
       <c r="F12" s="3">
-        <v>237800</v>
+        <v>238300</v>
       </c>
       <c r="G12" s="3">
-        <v>285200</v>
+        <v>285800</v>
       </c>
       <c r="H12" s="3">
-        <v>144800</v>
+        <v>145200</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -920,13 +920,13 @@
         <v>21500</v>
       </c>
       <c r="E14" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="F14" s="3">
         <v>21500</v>
       </c>
       <c r="G14" s="3">
-        <v>26000</v>
+        <v>26100</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4899500</v>
+        <v>4910200</v>
       </c>
       <c r="E17" s="3">
-        <v>3798300</v>
+        <v>3806500</v>
       </c>
       <c r="F17" s="3">
-        <v>1396800</v>
+        <v>1399900</v>
       </c>
       <c r="G17" s="3">
-        <v>840700</v>
+        <v>842500</v>
       </c>
       <c r="H17" s="3">
-        <v>234800</v>
+        <v>235300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1199400</v>
+        <v>-1202100</v>
       </c>
       <c r="E18" s="3">
-        <v>-906500</v>
+        <v>-908500</v>
       </c>
       <c r="F18" s="3">
-        <v>-591600</v>
+        <v>-592900</v>
       </c>
       <c r="G18" s="3">
-        <v>-520900</v>
+        <v>-522000</v>
       </c>
       <c r="H18" s="3">
-        <v>-233500</v>
+        <v>-234000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-38700</v>
+        <v>-38800</v>
       </c>
       <c r="E20" s="3">
-        <v>247700</v>
+        <v>248200</v>
       </c>
       <c r="F20" s="3">
-        <v>218400</v>
+        <v>218900</v>
       </c>
       <c r="G20" s="3">
         <v>16700</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1096000</v>
+        <v>-1098500</v>
       </c>
       <c r="E21" s="3">
-        <v>-575000</v>
+        <v>-576300</v>
       </c>
       <c r="F21" s="3">
-        <v>-327900</v>
+        <v>-328600</v>
       </c>
       <c r="G21" s="3">
-        <v>-485200</v>
+        <v>-486200</v>
       </c>
       <c r="H21" s="3">
-        <v>-183500</v>
+        <v>-183900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,7 +1162,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="E22" s="3">
         <v>7600</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1256300</v>
+        <v>-1259100</v>
       </c>
       <c r="E23" s="3">
-        <v>-666500</v>
+        <v>-667900</v>
       </c>
       <c r="F23" s="3">
-        <v>-376200</v>
+        <v>-377100</v>
       </c>
       <c r="G23" s="3">
-        <v>-508600</v>
+        <v>-509700</v>
       </c>
       <c r="H23" s="3">
-        <v>-192700</v>
+        <v>-193100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1259700</v>
+        <v>-1262500</v>
       </c>
       <c r="E26" s="3">
-        <v>-670000</v>
+        <v>-671500</v>
       </c>
       <c r="F26" s="3">
-        <v>-376400</v>
+        <v>-377200</v>
       </c>
       <c r="G26" s="3">
-        <v>-508600</v>
+        <v>-509700</v>
       </c>
       <c r="H26" s="3">
-        <v>-192700</v>
+        <v>-193100</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1259200</v>
+        <v>-1261900</v>
       </c>
       <c r="E27" s="3">
-        <v>-670000</v>
+        <v>-671500</v>
       </c>
       <c r="F27" s="3">
-        <v>-673700</v>
+        <v>-675200</v>
       </c>
       <c r="G27" s="3">
-        <v>-639700</v>
+        <v>-641100</v>
       </c>
       <c r="H27" s="3">
-        <v>-310700</v>
+        <v>-311400</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,13 +1522,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>38700</v>
+        <v>38800</v>
       </c>
       <c r="E32" s="3">
-        <v>-247700</v>
+        <v>-248200</v>
       </c>
       <c r="F32" s="3">
-        <v>-218400</v>
+        <v>-218900</v>
       </c>
       <c r="G32" s="3">
         <v>-16700</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1259200</v>
+        <v>-1261900</v>
       </c>
       <c r="E33" s="3">
-        <v>-670000</v>
+        <v>-671500</v>
       </c>
       <c r="F33" s="3">
-        <v>-673700</v>
+        <v>-675200</v>
       </c>
       <c r="G33" s="3">
-        <v>-639700</v>
+        <v>-641100</v>
       </c>
       <c r="H33" s="3">
-        <v>-310700</v>
+        <v>-311400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1259200</v>
+        <v>-1261900</v>
       </c>
       <c r="E35" s="3">
-        <v>-670000</v>
+        <v>-671500</v>
       </c>
       <c r="F35" s="3">
-        <v>-673700</v>
+        <v>-675200</v>
       </c>
       <c r="G35" s="3">
-        <v>-639700</v>
+        <v>-641100</v>
       </c>
       <c r="H35" s="3">
-        <v>-310700</v>
+        <v>-311400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4068600</v>
+        <v>4077400</v>
       </c>
       <c r="E41" s="3">
-        <v>5081700</v>
+        <v>5092800</v>
       </c>
       <c r="F41" s="3">
-        <v>4159500</v>
+        <v>4168500</v>
       </c>
       <c r="G41" s="3">
-        <v>268200</v>
+        <v>268800</v>
       </c>
       <c r="H41" s="3">
-        <v>328900</v>
+        <v>329600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>173900</v>
+        <v>174300</v>
       </c>
       <c r="E42" s="3">
-        <v>390400</v>
+        <v>391300</v>
       </c>
       <c r="F42" s="3">
-        <v>388600</v>
+        <v>389500</v>
       </c>
       <c r="G42" s="3">
-        <v>56200</v>
+        <v>56300</v>
       </c>
       <c r="H42" s="3">
-        <v>309500</v>
+        <v>310200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>911100</v>
+        <v>913000</v>
       </c>
       <c r="E43" s="3">
-        <v>572700</v>
+        <v>573900</v>
       </c>
       <c r="F43" s="3">
-        <v>249000</v>
+        <v>249500</v>
       </c>
       <c r="G43" s="3">
-        <v>182400</v>
+        <v>182800</v>
       </c>
       <c r="H43" s="3">
-        <v>149900</v>
+        <v>150200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,19 +1847,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>623000</v>
+        <v>624300</v>
       </c>
       <c r="E44" s="3">
-        <v>366800</v>
+        <v>367600</v>
       </c>
       <c r="F44" s="3">
-        <v>185000</v>
+        <v>185400</v>
       </c>
       <c r="G44" s="3">
-        <v>62600</v>
+        <v>62700</v>
       </c>
       <c r="H44" s="3">
-        <v>23300</v>
+        <v>23400</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1883,16 +1883,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>220700</v>
+        <v>221200</v>
       </c>
       <c r="E45" s="3">
-        <v>316300</v>
+        <v>317000</v>
       </c>
       <c r="F45" s="3">
-        <v>484800</v>
+        <v>485900</v>
       </c>
       <c r="G45" s="3">
-        <v>114100</v>
+        <v>114300</v>
       </c>
       <c r="H45" s="3">
         <v>30200</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5997200</v>
+        <v>6010300</v>
       </c>
       <c r="E46" s="3">
-        <v>6727900</v>
+        <v>6742500</v>
       </c>
       <c r="F46" s="3">
-        <v>5467000</v>
+        <v>5478900</v>
       </c>
       <c r="G46" s="3">
-        <v>683500</v>
+        <v>685000</v>
       </c>
       <c r="H46" s="3">
-        <v>841700</v>
+        <v>843500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,13 +1955,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1572100</v>
+        <v>1575500</v>
       </c>
       <c r="E47" s="3">
-        <v>913500</v>
+        <v>915500</v>
       </c>
       <c r="F47" s="3">
-        <v>54900</v>
+        <v>55000</v>
       </c>
       <c r="G47" s="3">
         <v>15200</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1730700</v>
+        <v>1734500</v>
       </c>
       <c r="E48" s="3">
-        <v>962500</v>
+        <v>964600</v>
       </c>
       <c r="F48" s="3">
-        <v>488100</v>
+        <v>489200</v>
       </c>
       <c r="G48" s="3">
-        <v>505700</v>
+        <v>506800</v>
       </c>
       <c r="H48" s="3">
-        <v>166100</v>
+        <v>166500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>522300</v>
+        <v>523400</v>
       </c>
       <c r="E49" s="3">
-        <v>203100</v>
+        <v>203600</v>
       </c>
       <c r="F49" s="3">
-        <v>118200</v>
+        <v>118400</v>
       </c>
       <c r="G49" s="3">
-        <v>51400</v>
+        <v>51500</v>
       </c>
       <c r="H49" s="3">
-        <v>42600</v>
+        <v>42700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27700</v>
+        <v>27800</v>
       </c>
       <c r="E52" s="3">
-        <v>238400</v>
+        <v>238900</v>
       </c>
       <c r="F52" s="3">
-        <v>31500</v>
+        <v>31600</v>
       </c>
       <c r="G52" s="3">
-        <v>18900</v>
+        <v>19000</v>
       </c>
       <c r="H52" s="3">
         <v>6800</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9850000</v>
+        <v>9871500</v>
       </c>
       <c r="E54" s="3">
-        <v>9045400</v>
+        <v>9065100</v>
       </c>
       <c r="F54" s="3">
-        <v>6159700</v>
+        <v>6173100</v>
       </c>
       <c r="G54" s="3">
-        <v>1274700</v>
+        <v>1277400</v>
       </c>
       <c r="H54" s="3">
-        <v>1057200</v>
+        <v>1059500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1959600</v>
+        <v>1963900</v>
       </c>
       <c r="E57" s="3">
-        <v>1703300</v>
+        <v>1707000</v>
       </c>
       <c r="F57" s="3">
-        <v>704300</v>
+        <v>705800</v>
       </c>
       <c r="G57" s="3">
-        <v>131400</v>
+        <v>131700</v>
       </c>
       <c r="H57" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,16 +2311,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>456000</v>
+        <v>457000</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>23800</v>
+        <v>23900</v>
       </c>
       <c r="G58" s="3">
-        <v>66100</v>
+        <v>66300</v>
       </c>
       <c r="H58" s="3">
         <v>27600</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>907000</v>
+        <v>908900</v>
       </c>
       <c r="E59" s="3">
-        <v>778500</v>
+        <v>780200</v>
       </c>
       <c r="F59" s="3">
-        <v>351700</v>
+        <v>352500</v>
       </c>
       <c r="G59" s="3">
-        <v>256800</v>
+        <v>257400</v>
       </c>
       <c r="H59" s="3">
-        <v>76900</v>
+        <v>77100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3322500</v>
+        <v>3329800</v>
       </c>
       <c r="E60" s="3">
-        <v>2481800</v>
+        <v>2487200</v>
       </c>
       <c r="F60" s="3">
-        <v>1079800</v>
+        <v>1082200</v>
       </c>
       <c r="G60" s="3">
-        <v>454400</v>
+        <v>455300</v>
       </c>
       <c r="H60" s="3">
-        <v>134100</v>
+        <v>134300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>745500</v>
+        <v>747100</v>
       </c>
       <c r="E61" s="3">
-        <v>230800</v>
+        <v>231300</v>
       </c>
       <c r="F61" s="3">
-        <v>226600</v>
+        <v>227100</v>
       </c>
       <c r="G61" s="3">
-        <v>232800</v>
+        <v>233400</v>
       </c>
       <c r="H61" s="3">
-        <v>137800</v>
+        <v>138100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>453500</v>
+        <v>454500</v>
       </c>
       <c r="E62" s="3">
-        <v>290600</v>
+        <v>291200</v>
       </c>
       <c r="F62" s="3">
-        <v>109500</v>
+        <v>109700</v>
       </c>
       <c r="G62" s="3">
-        <v>193000</v>
+        <v>193400</v>
       </c>
       <c r="H62" s="3">
-        <v>124800</v>
+        <v>125100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4764500</v>
+        <v>4774900</v>
       </c>
       <c r="E66" s="3">
-        <v>3238500</v>
+        <v>3245500</v>
       </c>
       <c r="F66" s="3">
-        <v>1416000</v>
+        <v>1419000</v>
       </c>
       <c r="G66" s="3">
-        <v>880200</v>
+        <v>882100</v>
       </c>
       <c r="H66" s="3">
-        <v>396700</v>
+        <v>397500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1335600</v>
+        <v>1338500</v>
       </c>
       <c r="H70" s="3">
-        <v>961600</v>
+        <v>963700</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3489200</v>
+        <v>-3496800</v>
       </c>
       <c r="E72" s="3">
-        <v>-2230000</v>
+        <v>-2234900</v>
       </c>
       <c r="F72" s="3">
-        <v>-1560000</v>
+        <v>-1563400</v>
       </c>
       <c r="G72" s="3">
-        <v>-940300</v>
+        <v>-942300</v>
       </c>
       <c r="H72" s="3">
-        <v>-300700</v>
+        <v>-301300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5085600</v>
+        <v>5096600</v>
       </c>
       <c r="E76" s="3">
-        <v>5807000</v>
+        <v>5819600</v>
       </c>
       <c r="F76" s="3">
-        <v>4743700</v>
+        <v>4754100</v>
       </c>
       <c r="G76" s="3">
-        <v>-941100</v>
+        <v>-943200</v>
       </c>
       <c r="H76" s="3">
-        <v>-301000</v>
+        <v>-301700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1259200</v>
+        <v>-1261900</v>
       </c>
       <c r="E81" s="3">
-        <v>-670000</v>
+        <v>-671500</v>
       </c>
       <c r="F81" s="3">
-        <v>-673700</v>
+        <v>-675200</v>
       </c>
       <c r="G81" s="3">
-        <v>-639700</v>
+        <v>-641100</v>
       </c>
       <c r="H81" s="3">
-        <v>-310700</v>
+        <v>-311400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,13 +3104,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>142100</v>
+        <v>142400</v>
       </c>
       <c r="E83" s="3">
-        <v>83900</v>
+        <v>84100</v>
       </c>
       <c r="F83" s="3">
-        <v>45300</v>
+        <v>45400</v>
       </c>
       <c r="G83" s="3">
         <v>19100</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1134300</v>
+        <v>-1136700</v>
       </c>
       <c r="E89" s="3">
-        <v>-150800</v>
+        <v>-151100</v>
       </c>
       <c r="F89" s="3">
         <v>-19300</v>
       </c>
       <c r="G89" s="3">
-        <v>-490900</v>
+        <v>-491900</v>
       </c>
       <c r="H89" s="3">
-        <v>-216700</v>
+        <v>-217200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-589100</v>
+        <v>-590400</v>
       </c>
       <c r="E91" s="3">
-        <v>-316900</v>
+        <v>-317500</v>
       </c>
       <c r="F91" s="3">
-        <v>-111100</v>
+        <v>-111300</v>
       </c>
       <c r="G91" s="3">
-        <v>-252400</v>
+        <v>-252900</v>
       </c>
       <c r="H91" s="3">
-        <v>-106100</v>
+        <v>-106400</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>667700</v>
+        <v>669100</v>
       </c>
       <c r="E94" s="3">
-        <v>-4557200</v>
+        <v>-4567100</v>
       </c>
       <c r="F94" s="3">
-        <v>-607100</v>
+        <v>-608400</v>
       </c>
       <c r="G94" s="3">
-        <v>102000</v>
+        <v>102200</v>
       </c>
       <c r="H94" s="3">
-        <v>-500200</v>
+        <v>-501300</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>827200</v>
+        <v>829000</v>
       </c>
       <c r="E100" s="3">
-        <v>2015300</v>
+        <v>2019700</v>
       </c>
       <c r="F100" s="3">
-        <v>4730000</v>
+        <v>4740300</v>
       </c>
       <c r="G100" s="3">
-        <v>495100</v>
+        <v>496200</v>
       </c>
       <c r="H100" s="3">
-        <v>927800</v>
+        <v>929900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,13 +3712,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>63600</v>
+        <v>63800</v>
       </c>
       <c r="E101" s="3">
-        <v>-50100</v>
+        <v>-50200</v>
       </c>
       <c r="F101" s="3">
-        <v>-89600</v>
+        <v>-89800</v>
       </c>
       <c r="G101" s="3">
         <v>700</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>424200</v>
+        <v>425200</v>
       </c>
       <c r="E102" s="3">
-        <v>-2742700</v>
+        <v>-2748700</v>
       </c>
       <c r="F102" s="3">
-        <v>4014100</v>
+        <v>4022800</v>
       </c>
       <c r="G102" s="3">
-        <v>106900</v>
+        <v>107200</v>
       </c>
       <c r="H102" s="3">
-        <v>208900</v>
+        <v>209400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
